--- a/AfDD_2023_Annex_Table_Tab23.xlsx
+++ b/AfDD_2023_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab23.xlsx
+++ b/AfDD_2023_Annex_Table_Tab23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E30B6EE5-5E19-4F32-A7FD-DABA775B6508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76EDC5C8-4ACE-407B-BB78-D64FDDFF4CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{A3721369-D2E8-4F95-ACD8-0A845B5EB3F6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{882C29BA-070A-4AE0-ADE3-F0A25EFD03A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: FAOSTAT online dataset, Food and Agriculture Organization of the United Nations (retrieved 18/11/2021).</t>
@@ -1438,7 +1438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A942018F-ABAD-4CEB-8915-9F8051BCAB62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAE0F03-0D7C-4C59-9BC9-C5F65FE4509B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11235,11 +11235,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{386A510B-60E5-41CB-AD23-FEDA4C67777E}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BB1E057F-B93D-4651-B4FD-919F281132BA}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{0E8A19E4-AB9D-44CD-9F8D-D41791053DA4}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2114350F-F69C-492D-87E0-86E90DBDBF75}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{26CD0A9B-68C4-4FAE-81DF-5C0388E9F092}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{63AA53E8-23F6-4C8C-9E57-04FE824072F2}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{07C6B334-3FFD-4057-B90D-8929F3E4097F}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{88FEA56B-AB51-4BF8-8AD2-9B7EEF5A6330}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{ABC9E96E-B84C-4C5B-9A75-A4D92FC0DD8E}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{08DE4F40-A1C7-489A-994D-6E2A18FFBD91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab23.xlsx
+++ b/AfDD_2023_Annex_Table_Tab23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76EDC5C8-4ACE-407B-BB78-D64FDDFF4CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5206D9E3-8B58-422A-8B1C-50704F3AD5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{882C29BA-070A-4AE0-ADE3-F0A25EFD03A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7079882-6D5D-4511-BEB9-C505DDC7AA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab23'!$A$2:$P$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab23'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -324,7 +324,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -456,7 +456,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1438,7 +1438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAE0F03-0D7C-4C59-9BC9-C5F65FE4509B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1C91F4-1A1A-4FB1-A2C6-C05DBA6E8124}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4531,94 +4531,94 @@
       <c r="A34" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="28">
         <v>64688.3</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="29">
         <v>63193</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="29">
         <v>13.4625</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="29">
         <v>28251</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="29">
         <v>2477.6999999999998</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="29">
         <v>2394.6999999999998</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="29">
         <v>7157</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34" s="16">
+      <c r="J34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" s="29">
         <v>2062.3308999999999</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="28">
         <v>50024.150500000003</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="29">
         <v>484.44799999999998</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="29">
         <v>2062.3308999999999</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="29">
         <v>515.87649999999996</v>
       </c>
-      <c r="P34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q34" s="16">
+      <c r="P34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="29">
         <v>62.5961</v>
       </c>
-      <c r="R34" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="S34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="T34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="U34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="V34" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="X34" s="16">
+      <c r="R34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="U34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="V34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="W34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X34" s="29">
         <v>4770</v>
       </c>
-      <c r="Y34" s="16">
+      <c r="Y34" s="29">
         <v>289</v>
       </c>
-      <c r="Z34" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE34" s="17" t="s">
+      <c r="Z34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE34" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6716,94 +6716,94 @@
       <c r="A57" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="19">
         <v>92377</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="20">
         <v>91077</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="20">
         <v>645.89790000000005</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="20">
         <v>69450.05</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G57" s="20">
         <v>41500</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="20">
         <v>35000</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="20">
         <v>21626.95</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="19">
         <v>1661.1659999999999</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="20">
         <v>45991.267699999997</v>
       </c>
-      <c r="L57" s="28">
+      <c r="L57" s="19">
         <v>89093.247000000003</v>
       </c>
-      <c r="M57" s="29">
+      <c r="M57" s="20">
         <v>46145.471100000002</v>
       </c>
-      <c r="N57" s="29">
-        <v>0</v>
-      </c>
-      <c r="O57" s="29">
+      <c r="N57" s="20">
+        <v>0</v>
+      </c>
+      <c r="O57" s="20">
         <v>154.33269999999999</v>
       </c>
-      <c r="P57" s="29">
+      <c r="P57" s="20">
         <v>2185.4850000000001</v>
       </c>
-      <c r="Q57" s="29">
+      <c r="Q57" s="20">
         <v>3836.4328</v>
       </c>
-      <c r="R57" s="28">
+      <c r="R57" s="19">
         <v>38435.406000000003</v>
       </c>
-      <c r="S57" s="29">
+      <c r="S57" s="20">
         <v>38270.580999999998</v>
       </c>
-      <c r="T57" s="29">
+      <c r="T57" s="20">
         <v>36518.661</v>
       </c>
-      <c r="U57" s="29">
+      <c r="U57" s="20">
         <v>1779.663</v>
       </c>
-      <c r="V57" s="28">
+      <c r="V57" s="19">
         <v>27.742999999999999</v>
       </c>
-      <c r="W57" s="29">
+      <c r="W57" s="20">
         <v>764.48</v>
       </c>
-      <c r="X57" s="29">
+      <c r="X57" s="20">
         <v>79004.695000000007</v>
       </c>
-      <c r="Y57" s="29">
+      <c r="Y57" s="20">
         <v>4812.741</v>
       </c>
-      <c r="Z57" s="28">
+      <c r="Z57" s="19">
         <v>724.3</v>
       </c>
-      <c r="AA57" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="29">
+      <c r="AA57" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="20">
         <v>436.4</v>
       </c>
-      <c r="AD57" s="29">
+      <c r="AD57" s="20">
         <v>136.1</v>
       </c>
-      <c r="AE57" s="30">
+      <c r="AE57" s="21">
         <v>113.7</v>
       </c>
     </row>
@@ -7860,49 +7860,49 @@
         <v>154</v>
       </c>
       <c r="C69" s="43">
-        <v>247027.3</v>
+        <v>481513.3</v>
       </c>
       <c r="D69" s="44">
-        <v>233774</v>
+        <v>460479</v>
       </c>
       <c r="E69" s="44">
-        <v>237.3724</v>
+        <v>437.11849999999998</v>
       </c>
       <c r="F69" s="44">
-        <v>113661.9</v>
+        <v>147233.9</v>
       </c>
       <c r="G69" s="44">
-        <v>36380.6</v>
+        <v>51752.6</v>
       </c>
       <c r="H69" s="44">
-        <v>30948.9</v>
+        <v>44425.9</v>
       </c>
       <c r="I69" s="44">
-        <v>59406.63</v>
+        <v>185561.87</v>
       </c>
       <c r="J69" s="43">
-        <v>2175.8361</v>
+        <v>20943.9512</v>
       </c>
       <c r="K69" s="44">
-        <v>61531.570299999999</v>
+        <v>662321.16449999996</v>
       </c>
       <c r="L69" s="43">
-        <v>219790.4258</v>
+        <v>247767.9442</v>
       </c>
       <c r="M69" s="44">
-        <v>74102.209499999997</v>
+        <v>697847.64190000005</v>
       </c>
       <c r="N69" s="44">
         <v>-8097.1198999999997</v>
       </c>
       <c r="O69" s="44">
-        <v>7343.9884000000002</v>
+        <v>30530.7945</v>
       </c>
       <c r="P69" s="44">
-        <v>1233.5138999999999</v>
+        <v>1301.6143</v>
       </c>
       <c r="Q69" s="44">
-        <v>1395.5881999999999</v>
+        <v>1843.0345</v>
       </c>
       <c r="R69" s="43">
         <v>34715.385000000002</v>
@@ -7920,13 +7920,13 @@
         <v>1997.3109999999999</v>
       </c>
       <c r="W69" s="44">
-        <v>845.05388416278902</v>
+        <v>756.98472181198099</v>
       </c>
       <c r="X69" s="44">
-        <v>122927.852</v>
+        <v>215447.17600000001</v>
       </c>
       <c r="Y69" s="44">
-        <v>5297.73</v>
+        <v>8098.42</v>
       </c>
       <c r="Z69" s="43">
         <v>0</v>
@@ -7938,13 +7938,13 @@
         <v>0</v>
       </c>
       <c r="AC69" s="44">
-        <v>380.52760000000001</v>
+        <v>404.21643</v>
       </c>
       <c r="AD69" s="44">
-        <v>229.64125999999999</v>
+        <v>231.4127</v>
       </c>
       <c r="AE69" s="45">
-        <v>61.035449999999997</v>
+        <v>64.170810000000003</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.35">
@@ -8620,49 +8620,49 @@
         <v>162</v>
       </c>
       <c r="C77" s="43">
-        <v>1770747.105</v>
+        <v>1679542.105</v>
       </c>
       <c r="D77" s="44">
-        <v>1736674.2</v>
+        <v>1648469.2</v>
       </c>
       <c r="E77" s="44">
-        <v>3837.22</v>
+        <v>3583.8971000000001</v>
       </c>
       <c r="F77" s="44">
-        <v>530596.4632</v>
+        <v>509096.4632</v>
       </c>
       <c r="G77" s="44">
-        <v>131312.99419999999</v>
+        <v>128012.9942</v>
       </c>
       <c r="H77" s="44">
-        <v>113468.32859999999</v>
+        <v>110868.32859999999</v>
       </c>
       <c r="I77" s="44">
-        <v>836182.96</v>
+        <v>789952.06</v>
       </c>
       <c r="J77" s="43">
-        <v>94628.888399999996</v>
+        <v>89123.712799999994</v>
       </c>
       <c r="K77" s="44">
-        <v>720940.92139999999</v>
+        <v>680091.77020000003</v>
       </c>
       <c r="L77" s="43">
-        <v>980625.98659999995</v>
+        <v>936381.03350000002</v>
       </c>
       <c r="M77" s="44">
-        <v>1103529.6355000001</v>
+        <v>1063091.0549999999</v>
       </c>
       <c r="N77" s="44">
-        <v>-362309.32770000002</v>
+        <v>-363267.0968</v>
       </c>
       <c r="O77" s="44">
-        <v>23173.4984</v>
+        <v>22444.962899999999</v>
       </c>
       <c r="P77" s="44">
-        <v>42996.030100000004</v>
+        <v>41573.5726</v>
       </c>
       <c r="Q77" s="44">
-        <v>51848.881099999999</v>
+        <v>50675.8675</v>
       </c>
       <c r="R77" s="43">
         <v>273767.17700000003</v>
@@ -8680,31 +8680,31 @@
         <v>11770.566999999999</v>
       </c>
       <c r="W77" s="44">
-        <v>918.17617327545997</v>
+        <v>957.74728145051904</v>
       </c>
       <c r="X77" s="44">
-        <v>504413.07500000001</v>
+        <v>497142.42300000001</v>
       </c>
       <c r="Y77" s="44">
-        <v>64513.777000000002</v>
+        <v>63939.044000000002</v>
       </c>
       <c r="Z77" s="43">
-        <v>1307.3487</v>
+        <v>1109.0487000000001</v>
       </c>
       <c r="AA77" s="44">
-        <v>3794.0740000000001</v>
+        <v>3724.0740000000001</v>
       </c>
       <c r="AB77" s="44">
-        <v>1314.4834900000001</v>
+        <v>1266.4834900000001</v>
       </c>
       <c r="AC77" s="44">
-        <v>9139.5544000000009</v>
+        <v>8997.2543999999998</v>
       </c>
       <c r="AD77" s="44">
-        <v>9166.5013999999992</v>
+        <v>9070.8014000000003</v>
       </c>
       <c r="AE77" s="45">
-        <v>8452.0426000000007</v>
+        <v>8365.4426000000003</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.35">
@@ -8905,76 +8905,76 @@
         <v>165</v>
       </c>
       <c r="C80" s="51">
-        <v>926820.1</v>
+        <v>899131.4</v>
       </c>
       <c r="D80" s="52">
-        <v>921990.1</v>
+        <v>894106.1</v>
       </c>
       <c r="E80" s="52">
-        <v>1189.5655999999999</v>
+        <v>557.13019999999995</v>
       </c>
       <c r="F80" s="52">
-        <v>286118.54700000002</v>
+        <v>244919.497</v>
       </c>
       <c r="G80" s="52">
-        <v>64291.616999999998</v>
+        <v>25269.316999999999</v>
       </c>
       <c r="H80" s="52">
-        <v>55788.616999999998</v>
+        <v>23183.316999999999</v>
       </c>
       <c r="I80" s="52">
-        <v>142996.87</v>
+        <v>128526.92</v>
       </c>
       <c r="J80" s="51">
-        <v>9400.4599999999991</v>
+        <v>7739.2939999999999</v>
       </c>
       <c r="K80" s="52">
-        <v>119794.988</v>
+        <v>75866.051200000002</v>
       </c>
       <c r="L80" s="51">
-        <v>239110.2401</v>
+        <v>200041.14360000001</v>
       </c>
       <c r="M80" s="52">
-        <v>136001.6207</v>
+        <v>90340.597599999994</v>
       </c>
       <c r="N80" s="52">
-        <v>-2220.1900999999998</v>
+        <v>-157.85919999999999</v>
       </c>
       <c r="O80" s="52">
-        <v>14336.3894</v>
+        <v>14697.933199999999</v>
       </c>
       <c r="P80" s="52">
-        <v>2817.5122999999999</v>
+        <v>632.02729999999997</v>
       </c>
       <c r="Q80" s="52">
-        <v>5762.7873</v>
+        <v>1988.9505999999999</v>
       </c>
       <c r="R80" s="51">
-        <v>69576.926999999996</v>
+        <v>31141.521000000001</v>
       </c>
       <c r="S80" s="52">
-        <v>69398.502999999997</v>
+        <v>31127.921999999999</v>
       </c>
       <c r="T80" s="52">
-        <v>59484.124000000003</v>
+        <v>22965.463</v>
       </c>
       <c r="U80" s="52">
-        <v>9955.6579999999994</v>
+        <v>8175.9949999999999</v>
       </c>
       <c r="V80" s="51">
-        <v>41.277000000000001</v>
+        <v>13.534000000000001</v>
       </c>
       <c r="W80" s="52">
-        <v>743.50646576899305</v>
+        <v>704.92833769968695</v>
       </c>
       <c r="X80" s="52">
-        <v>118231.811</v>
+        <v>43997.116000000002</v>
       </c>
       <c r="Y80" s="52">
-        <v>7069.549</v>
+        <v>2545.808</v>
       </c>
       <c r="Z80" s="51">
-        <v>1888.5</v>
+        <v>1164.2</v>
       </c>
       <c r="AA80" s="52">
         <v>32.4</v>
@@ -8983,13 +8983,13 @@
         <v>0</v>
       </c>
       <c r="AC80" s="52">
-        <v>551.35763999999995</v>
+        <v>114.95764</v>
       </c>
       <c r="AD80" s="52">
-        <v>215.17354</v>
+        <v>79.073539999999994</v>
       </c>
       <c r="AE80" s="53">
-        <v>155.38337000000001</v>
+        <v>41.683369999999996</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.35">
@@ -9095,76 +9095,76 @@
         <v>167</v>
       </c>
       <c r="C82" s="43">
-        <v>2083618.8870999999</v>
+        <v>2111307.5871000001</v>
       </c>
       <c r="D82" s="44">
-        <v>2043256.6094</v>
+        <v>2071140.6094</v>
       </c>
       <c r="E82" s="44">
-        <v>3284.9899</v>
+        <v>3917.4252999999999</v>
       </c>
       <c r="F82" s="44">
-        <v>832757.11199999996</v>
+        <v>873956.16200000001</v>
       </c>
       <c r="G82" s="44">
-        <v>217505.09</v>
+        <v>256527.39</v>
       </c>
       <c r="H82" s="44">
-        <v>189741.39</v>
+        <v>222346.69</v>
       </c>
       <c r="I82" s="44">
-        <v>492862.7</v>
+        <v>507332.65</v>
       </c>
       <c r="J82" s="43">
-        <v>40918.9372</v>
+        <v>42580.103199999998</v>
       </c>
       <c r="K82" s="44">
-        <v>1063957.1736999999</v>
+        <v>1107886.1105</v>
       </c>
       <c r="L82" s="43">
-        <v>899510.85230000003</v>
+        <v>938579.94880000001</v>
       </c>
       <c r="M82" s="44">
-        <v>1083491.0889000001</v>
+        <v>1129152.112</v>
       </c>
       <c r="N82" s="44">
-        <v>45370.474999999999</v>
+        <v>43308.144099999998</v>
       </c>
       <c r="O82" s="44">
-        <v>86402.222899999993</v>
+        <v>86040.679099999994</v>
       </c>
       <c r="P82" s="44">
-        <v>19931.967000000001</v>
+        <v>22117.452000000001</v>
       </c>
       <c r="Q82" s="44">
-        <v>26978.7435</v>
+        <v>30752.5802</v>
       </c>
       <c r="R82" s="43">
-        <v>214660.16500000001</v>
+        <v>253095.571</v>
       </c>
       <c r="S82" s="44">
-        <v>206024.41500000001</v>
+        <v>244294.99600000001</v>
       </c>
       <c r="T82" s="44">
-        <v>159590.33600000001</v>
+        <v>196108.997</v>
       </c>
       <c r="U82" s="44">
-        <v>52333.946000000004</v>
+        <v>54113.608999999997</v>
       </c>
       <c r="V82" s="43">
-        <v>5904.8720000000003</v>
+        <v>5932.6149999999998</v>
       </c>
       <c r="W82" s="44">
-        <v>705.10148364096199</v>
+        <v>715.29824994873502</v>
       </c>
       <c r="X82" s="44">
-        <v>692088.03300000005</v>
+        <v>766322.728</v>
       </c>
       <c r="Y82" s="44">
-        <v>35928.379999999997</v>
+        <v>40452.120999999999</v>
       </c>
       <c r="Z82" s="43">
-        <v>5971.4455600000001</v>
+        <v>6695.7455600000003</v>
       </c>
       <c r="AA82" s="44">
         <v>4704.7668999999996</v>
@@ -9173,13 +9173,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AC82" s="44">
-        <v>3826.1187399999999</v>
+        <v>4262.5187400000004</v>
       </c>
       <c r="AD82" s="44">
-        <v>1515.6487</v>
+        <v>1651.7487000000001</v>
       </c>
       <c r="AE82" s="45">
-        <v>828.92345</v>
+        <v>942.62345000000005</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9285,73 +9285,73 @@
         <v>169</v>
       </c>
       <c r="C84" s="51">
-        <v>1378828.7871000001</v>
+        <v>1454089.7871000001</v>
       </c>
       <c r="D84" s="52">
-        <v>1350678.2094000001</v>
+        <v>1425017.2094000001</v>
       </c>
       <c r="E84" s="52">
-        <v>1037.1878999999999</v>
+        <v>1120.288</v>
       </c>
       <c r="F84" s="52">
-        <v>508542.62199999997</v>
+        <v>532378.62199999997</v>
       </c>
       <c r="G84" s="52">
-        <v>132456.34</v>
+        <v>136292.34</v>
       </c>
       <c r="H84" s="52">
-        <v>122038.34</v>
+        <v>125838.34</v>
       </c>
       <c r="I84" s="52">
-        <v>297065.73</v>
+        <v>341879.76</v>
       </c>
       <c r="J84" s="51">
-        <v>30017.163400000001</v>
+        <v>31254.030599999998</v>
       </c>
       <c r="K84" s="52">
-        <v>832447.75210000004</v>
+        <v>851495.00890000002</v>
       </c>
       <c r="L84" s="51">
-        <v>638481.60880000005</v>
+        <v>676581.09510000004</v>
       </c>
       <c r="M84" s="52">
-        <v>864953.11659999995</v>
+        <v>902881.68900000001</v>
       </c>
       <c r="N84" s="52">
         <v>9220.2307999999994</v>
       </c>
       <c r="O84" s="52">
-        <v>57722.415300000001</v>
+        <v>78770.378899999996</v>
       </c>
       <c r="P84" s="52">
-        <v>5028.9575999999997</v>
+        <v>6034.6152000000002</v>
       </c>
       <c r="Q84" s="52">
-        <v>4784.6553999999996</v>
+        <v>4896.6900999999998</v>
       </c>
       <c r="R84" s="51">
-        <v>69856.172999999995</v>
+        <v>72317.024999999994</v>
       </c>
       <c r="S84" s="52">
-        <v>68177.247000000003</v>
+        <v>70638.099000000002</v>
       </c>
       <c r="T84" s="52">
-        <v>53939.957999999999</v>
+        <v>55392.847000000002</v>
       </c>
       <c r="U84" s="52">
-        <v>15022.516</v>
+        <v>16030.477999999999</v>
       </c>
       <c r="V84" s="51">
         <v>790.09799999999996</v>
       </c>
       <c r="W84" s="52">
-        <v>643.47428123879899</v>
+        <v>639.38306112763303</v>
       </c>
       <c r="X84" s="52">
-        <v>442124.842</v>
+        <v>468265.842</v>
       </c>
       <c r="Y84" s="52">
-        <v>18401.322</v>
+        <v>19744.322</v>
       </c>
       <c r="Z84" s="51">
         <v>0</v>
@@ -9363,13 +9363,13 @@
         <v>0</v>
       </c>
       <c r="AC84" s="52">
-        <v>961.91884000000005</v>
+        <v>1153.6528599999999</v>
       </c>
       <c r="AD84" s="52">
-        <v>347.77837</v>
+        <v>405.59609</v>
       </c>
       <c r="AE84" s="53">
-        <v>122.27061999999999</v>
+        <v>175.82222999999999</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.35">
@@ -9475,73 +9475,73 @@
         <v>171</v>
       </c>
       <c r="C86" s="43">
-        <v>1163323.2</v>
+        <v>1088062.2</v>
       </c>
       <c r="D86" s="44">
-        <v>1149482.5</v>
+        <v>1075143.5</v>
       </c>
       <c r="E86" s="44">
-        <v>2424.6455999999998</v>
+        <v>2341.5455000000002</v>
       </c>
       <c r="F86" s="44">
-        <v>431481.32699999999</v>
+        <v>407645.32699999999</v>
       </c>
       <c r="G86" s="44">
-        <v>133046.217</v>
+        <v>129210.217</v>
       </c>
       <c r="H86" s="44">
-        <v>108172.917</v>
+        <v>104372.917</v>
       </c>
       <c r="I86" s="44">
-        <v>273581.65999999997</v>
+        <v>228767.63</v>
       </c>
       <c r="J86" s="43">
-        <v>14376.6271</v>
+        <v>13139.759899999999</v>
       </c>
       <c r="K86" s="44">
-        <v>284596.5673</v>
+        <v>265549.31050000002</v>
       </c>
       <c r="L86" s="43">
-        <v>446018.31420000002</v>
+        <v>407918.82789999997</v>
       </c>
       <c r="M86" s="44">
-        <v>287257.11920000002</v>
+        <v>249328.54680000001</v>
       </c>
       <c r="N86" s="44">
         <v>34457.907099999997</v>
       </c>
       <c r="O86" s="44">
-        <v>42763.7569</v>
+        <v>21715.793300000001</v>
       </c>
       <c r="P86" s="44">
-        <v>15004.124900000001</v>
+        <v>13998.4673</v>
       </c>
       <c r="Q86" s="44">
-        <v>17564.684000000001</v>
+        <v>17452.649300000001</v>
       </c>
       <c r="R86" s="43">
-        <v>192649.636</v>
+        <v>190188.78400000001</v>
       </c>
       <c r="S86" s="44">
-        <v>186291.97500000001</v>
+        <v>183831.12299999999</v>
       </c>
       <c r="T86" s="44">
-        <v>153150.60500000001</v>
+        <v>151697.71599999999</v>
       </c>
       <c r="U86" s="44">
-        <v>37581.682999999997</v>
+        <v>36573.720999999998</v>
       </c>
       <c r="V86" s="43">
         <v>4440.4449999999997</v>
       </c>
       <c r="W86" s="44">
-        <v>785.60291898475305</v>
+        <v>792.59854707928002</v>
       </c>
       <c r="X86" s="44">
-        <v>322196.89500000002</v>
+        <v>296055.89500000002</v>
       </c>
       <c r="Y86" s="44">
-        <v>18838.900000000001</v>
+        <v>17495.900000000001</v>
       </c>
       <c r="Z86" s="43">
         <v>7574.6455599999999</v>
@@ -9553,13 +9553,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AC86" s="44">
-        <v>2998.34431</v>
+        <v>2806.6102900000001</v>
       </c>
       <c r="AD86" s="44">
-        <v>1118.9805200000001</v>
+        <v>1061.1628000000001</v>
       </c>
       <c r="AE86" s="45">
-        <v>721.27165000000002</v>
+        <v>667.72004000000004</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.35">
@@ -9570,91 +9570,91 @@
         <v>172</v>
       </c>
       <c r="C87" s="43">
-        <v>1476420.6518999999</v>
+        <v>1475168.6518999999</v>
       </c>
       <c r="D87" s="44">
-        <v>1409616.4802999999</v>
+        <v>1408358.4802999999</v>
       </c>
       <c r="E87" s="44">
-        <v>7867.5424999999996</v>
+        <v>7888.8406999999997</v>
       </c>
       <c r="F87" s="44">
-        <v>634777.43330000003</v>
+        <v>635275.10329999996</v>
       </c>
       <c r="G87" s="44">
-        <v>378423.95630000002</v>
+        <v>378571.6263</v>
       </c>
       <c r="H87" s="44">
-        <v>318144.84629999998</v>
+        <v>318190.14630000002</v>
       </c>
       <c r="I87" s="44">
-        <v>398563.74</v>
+        <v>397430.02</v>
       </c>
       <c r="J87" s="43">
-        <v>30012.440500000001</v>
+        <v>29860.411499999998</v>
       </c>
       <c r="K87" s="44">
-        <v>420224.81430000003</v>
+        <v>415114.94520000002</v>
       </c>
       <c r="L87" s="43">
-        <v>2186639.8927000002</v>
+        <v>2187058.6205000002</v>
       </c>
       <c r="M87" s="44">
-        <v>926558.69409999996</v>
+        <v>921455.05110000004</v>
       </c>
       <c r="N87" s="44">
-        <v>-48924.388400000003</v>
+        <v>-48997.489500000003</v>
       </c>
       <c r="O87" s="44">
-        <v>28997.144100000001</v>
+        <v>28930.269100000001</v>
       </c>
       <c r="P87" s="44">
-        <v>168317.02129999999</v>
+        <v>168352.88430000001</v>
       </c>
       <c r="Q87" s="44">
-        <v>44174.144699999997</v>
+        <v>44418.7264</v>
       </c>
       <c r="R87" s="43">
-        <v>833271.897</v>
+        <v>836346.73600000003</v>
       </c>
       <c r="S87" s="44">
-        <v>784176.995</v>
+        <v>787159.72199999995</v>
       </c>
       <c r="T87" s="44">
-        <v>583809.53399999999</v>
+        <v>586205.16799999995</v>
       </c>
       <c r="U87" s="44">
-        <v>216475.02600000001</v>
+        <v>217154.231</v>
       </c>
       <c r="V87" s="43">
-        <v>17109.906999999999</v>
+        <v>17202.02</v>
       </c>
       <c r="W87" s="44">
-        <v>503.70531373388701</v>
+        <v>503.70847914792199</v>
       </c>
       <c r="X87" s="44">
-        <v>825934.72900000098</v>
+        <v>825820.12500000105</v>
       </c>
       <c r="Y87" s="44">
-        <v>71382.221000000005</v>
+        <v>71513.097999999998</v>
       </c>
       <c r="Z87" s="43">
         <v>26774.760289999998</v>
       </c>
       <c r="AA87" s="44">
-        <v>6767.2483400000001</v>
+        <v>6877.2483400000001</v>
       </c>
       <c r="AB87" s="44">
         <v>226.88301999999999</v>
       </c>
       <c r="AC87" s="44">
-        <v>36008.155650000001</v>
+        <v>36008.686229999999</v>
       </c>
       <c r="AD87" s="44">
-        <v>14287.20721</v>
+        <v>14287.245870000001</v>
       </c>
       <c r="AE87" s="45">
-        <v>7134.33554</v>
+        <v>7127.9696400000003</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.35">
@@ -9760,91 +9760,91 @@
         <v>174</v>
       </c>
       <c r="C89" s="43">
-        <v>5021093.9950000001</v>
+        <v>4991019.9950000001</v>
       </c>
       <c r="D89" s="44">
-        <v>4891698.55</v>
+        <v>4862576.55</v>
       </c>
       <c r="E89" s="44">
-        <v>22073.366900000001</v>
+        <v>21364.522000000001</v>
       </c>
       <c r="F89" s="44">
-        <v>1674711.0782000001</v>
+        <v>1658452.6081999999</v>
       </c>
       <c r="G89" s="44">
-        <v>530147.73919999995</v>
+        <v>520006.26919999998</v>
       </c>
       <c r="H89" s="44">
-        <v>471298.79859999998</v>
+        <v>461773.79859999998</v>
       </c>
       <c r="I89" s="44">
-        <v>1939534.68</v>
+        <v>1929566.92</v>
       </c>
       <c r="J89" s="43">
-        <v>143425.32629999999</v>
+        <v>142418.04459999999</v>
       </c>
       <c r="K89" s="44">
-        <v>-654133.28810000001</v>
+        <v>-629108.59069999994</v>
       </c>
       <c r="L89" s="43">
-        <v>2327807.0348</v>
+        <v>2305141.6275999998</v>
       </c>
       <c r="M89" s="44">
-        <v>1113399.4948</v>
+        <v>1109561.5895</v>
       </c>
       <c r="N89" s="44">
-        <v>-1746775.8555999999</v>
+        <v>-1717869.1196000001</v>
       </c>
       <c r="O89" s="44">
-        <v>23580.624899999999</v>
+        <v>23611.3727</v>
       </c>
       <c r="P89" s="44">
-        <v>252279.75159999999</v>
+        <v>250283.09270000001</v>
       </c>
       <c r="Q89" s="44">
-        <v>249767.815</v>
+        <v>247824.9743</v>
       </c>
       <c r="R89" s="43">
-        <v>2131102.128</v>
+        <v>2112074.35</v>
       </c>
       <c r="S89" s="44">
-        <v>2031761.4140000001</v>
+        <v>2012847.335</v>
       </c>
       <c r="T89" s="44">
-        <v>1416691.8629999999</v>
+        <v>1403397.6629999999</v>
       </c>
       <c r="U89" s="44">
-        <v>666647.60199999996</v>
+        <v>660914.02500000002</v>
       </c>
       <c r="V89" s="43">
-        <v>53965.16</v>
+        <v>53850.137999999999</v>
       </c>
       <c r="W89" s="44">
-        <v>782.715916723531</v>
+        <v>784.68590995808199</v>
       </c>
       <c r="X89" s="44">
-        <v>1744852.121</v>
+        <v>1715551.3629999999</v>
       </c>
       <c r="Y89" s="44">
-        <v>317338.38400000002</v>
+        <v>315376.26500000001</v>
       </c>
       <c r="Z89" s="43">
-        <v>50982.958100000003</v>
+        <v>49777.824099999998</v>
       </c>
       <c r="AA89" s="44">
-        <v>23245.01456</v>
+        <v>23053.506509999999</v>
       </c>
       <c r="AB89" s="44">
         <v>25176.99093</v>
       </c>
       <c r="AC89" s="44">
-        <v>44752.925600000002</v>
+        <v>44265.617639999997</v>
       </c>
       <c r="AD89" s="44">
-        <v>22034.870299999999</v>
+        <v>21837.107759999999</v>
       </c>
       <c r="AE89" s="45">
-        <v>21617.06653</v>
+        <v>21525.686129999998</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9855,91 +9855,91 @@
         <v>175</v>
       </c>
       <c r="C90" s="47">
-        <v>3668718.4685</v>
+        <v>3700044.4685</v>
       </c>
       <c r="D90" s="48">
-        <v>3445919.7223999999</v>
+        <v>3476299.7223999999</v>
       </c>
       <c r="E90" s="48">
-        <v>25315.4509</v>
+        <v>26002.997599999999</v>
       </c>
       <c r="F90" s="48">
-        <v>1208657.0367000001</v>
+        <v>1224417.8367000001</v>
       </c>
       <c r="G90" s="48">
-        <v>349723.87900000002</v>
+        <v>359717.679</v>
       </c>
       <c r="H90" s="48">
-        <v>333392.71759999997</v>
+        <v>342872.41759999999</v>
       </c>
       <c r="I90" s="48">
-        <v>1019885.88</v>
+        <v>1030987.36</v>
       </c>
       <c r="J90" s="47">
-        <v>62746.952400000002</v>
+        <v>63906.263099999996</v>
       </c>
       <c r="K90" s="48">
-        <v>-686302.23580000002</v>
+        <v>-706217.06409999996</v>
       </c>
       <c r="L90" s="47">
-        <v>1475753.9087</v>
+        <v>1498000.5881000001</v>
       </c>
       <c r="M90" s="48">
-        <v>195687.5674</v>
+        <v>204629.11569999999</v>
       </c>
       <c r="N90" s="48">
-        <v>-881912.5331</v>
+        <v>-910746.16799999995</v>
       </c>
       <c r="O90" s="48">
-        <v>24247.158200000002</v>
+        <v>24283.285400000001</v>
       </c>
       <c r="P90" s="48">
-        <v>155102.2934</v>
+        <v>157063.08929999999</v>
       </c>
       <c r="Q90" s="48">
-        <v>202324.74969999999</v>
+        <v>204023.00870000001</v>
       </c>
       <c r="R90" s="47">
-        <v>886162.00800000003</v>
+        <v>902114.94700000004</v>
       </c>
       <c r="S90" s="48">
-        <v>879692.77599999995</v>
+        <v>895624.12800000003</v>
       </c>
       <c r="T90" s="48">
-        <v>558738.848</v>
+        <v>569637.41399999999</v>
       </c>
       <c r="U90" s="48">
-        <v>325972.07900000003</v>
+        <v>331026.451</v>
       </c>
       <c r="V90" s="47">
-        <v>7256.5349999999999</v>
+        <v>7279.4440000000004</v>
       </c>
       <c r="W90" s="48">
-        <v>559.56002199375098</v>
+        <v>563.60999066376405</v>
       </c>
       <c r="X90" s="48">
-        <v>1865944.537</v>
+        <v>1895359.899</v>
       </c>
       <c r="Y90" s="48">
-        <v>497584.57299999997</v>
+        <v>499415.815</v>
       </c>
       <c r="Z90" s="47">
-        <v>37292.171799999996</v>
+        <v>38497.305800000002</v>
       </c>
       <c r="AA90" s="48">
-        <v>10046.506230000001</v>
+        <v>10128.014279999999</v>
       </c>
       <c r="AB90" s="48">
         <v>19450.936079999999</v>
       </c>
       <c r="AC90" s="48">
-        <v>27903.765490000002</v>
+        <v>28390.542870000001</v>
       </c>
       <c r="AD90" s="48">
-        <v>9938.9365400000006</v>
+        <v>10136.66042</v>
       </c>
       <c r="AE90" s="49">
-        <v>9330.4333100000003</v>
+        <v>9428.1796100000101</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.35">
@@ -9986,7 +9986,7 @@
         <v>7781.4276</v>
       </c>
       <c r="O91" s="52">
-        <v>98667.441800000001</v>
+        <v>98667.441800000102</v>
       </c>
       <c r="P91" s="52">
         <v>7131.8242</v>
@@ -10235,49 +10235,49 @@
         <v>179</v>
       </c>
       <c r="C94" s="43">
-        <v>116596.3</v>
+        <v>116517.8</v>
       </c>
       <c r="D94" s="44">
-        <v>111820.3</v>
+        <v>111741.8</v>
       </c>
       <c r="E94" s="44">
-        <v>320.33319999999998</v>
+        <v>302.5401</v>
       </c>
       <c r="F94" s="44">
-        <v>15072.36</v>
+        <v>15063.76</v>
       </c>
       <c r="G94" s="44">
-        <v>8863.93</v>
+        <v>8859.33</v>
       </c>
       <c r="H94" s="44">
-        <v>6182.22</v>
+        <v>6180.62</v>
       </c>
       <c r="I94" s="44">
-        <v>83284.59</v>
+        <v>83283.89</v>
       </c>
       <c r="J94" s="43">
         <v>12841.731</v>
       </c>
       <c r="K94" s="44">
-        <v>74031.888600000006</v>
+        <v>74034.777499999997</v>
       </c>
       <c r="L94" s="43">
-        <v>81047.980200000005</v>
+        <v>80794.415399999998</v>
       </c>
       <c r="M94" s="44">
         <v>37152.011400000003</v>
       </c>
       <c r="N94" s="44">
-        <v>37070.886599999998</v>
+        <v>37073.775500000003</v>
       </c>
       <c r="O94" s="44">
         <v>212.48339999999999</v>
       </c>
       <c r="P94" s="44">
-        <v>1186.3821</v>
+        <v>1180.0676000000001</v>
       </c>
       <c r="Q94" s="44">
-        <v>8475.9406999999992</v>
+        <v>8304.7536</v>
       </c>
       <c r="R94" s="43">
         <v>18335.762999999999</v>
@@ -10298,13 +10298,13 @@
         <v>831.306967302668</v>
       </c>
       <c r="X94" s="44">
-        <v>24337.491000000002</v>
+        <v>24330.088</v>
       </c>
       <c r="Y94" s="44">
-        <v>1343.64</v>
+        <v>1250.4459999999999</v>
       </c>
       <c r="Z94" s="43">
-        <v>1145.8610200000001</v>
+        <v>756.33403999999996</v>
       </c>
       <c r="AA94" s="44">
         <v>0</v>
@@ -10313,13 +10313,13 @@
         <v>0</v>
       </c>
       <c r="AC94" s="44">
-        <v>216.49849</v>
+        <v>214.71969999999999</v>
       </c>
       <c r="AD94" s="44">
-        <v>61.383760000000002</v>
+        <v>61.313420000000001</v>
       </c>
       <c r="AE94" s="45">
-        <v>102.67944</v>
+        <v>102.53394</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.35">
@@ -10520,58 +10520,58 @@
         <v>182</v>
       </c>
       <c r="C97" s="51">
-        <v>2251594.8870999999</v>
+        <v>2263070.8870999999</v>
       </c>
       <c r="D97" s="52">
-        <v>2215358.3094000001</v>
+        <v>2226634.3094000001</v>
       </c>
       <c r="E97" s="52">
-        <v>2434.3177000000001</v>
+        <v>2483.3953999999999</v>
       </c>
       <c r="F97" s="52">
-        <v>837103.18200000003</v>
+        <v>841053.18200000003</v>
       </c>
       <c r="G97" s="52">
-        <v>223687.44</v>
+        <v>227087.44</v>
       </c>
       <c r="H97" s="52">
-        <v>197636.74</v>
+        <v>200436.74</v>
       </c>
       <c r="I97" s="52">
-        <v>543069.27</v>
+        <v>546204.42000000004</v>
       </c>
       <c r="J97" s="51">
-        <v>43518.309399999998</v>
+        <v>43701.464899999999</v>
       </c>
       <c r="K97" s="52">
-        <v>1129398.3949</v>
+        <v>1140108.7282</v>
       </c>
       <c r="L97" s="51">
-        <v>968888.92279999994</v>
+        <v>974963.31759999995</v>
       </c>
       <c r="M97" s="52">
-        <v>1132875.9110999999</v>
+        <v>1143686.2660000001</v>
       </c>
       <c r="N97" s="52">
-        <v>75048.612299999993</v>
+        <v>75005.770999999993</v>
       </c>
       <c r="O97" s="52">
-        <v>100088.4206</v>
+        <v>100145.6009</v>
       </c>
       <c r="P97" s="52">
-        <v>9876.6229999999996</v>
+        <v>9991.1857999999993</v>
       </c>
       <c r="Q97" s="52">
-        <v>11946.703299999999</v>
+        <v>12398.6978</v>
       </c>
       <c r="R97" s="51">
-        <v>149695.51500000001</v>
+        <v>154222.285</v>
       </c>
       <c r="S97" s="52">
-        <v>142901.01699999999</v>
+        <v>147150.228</v>
       </c>
       <c r="T97" s="52">
-        <v>123162.14</v>
+        <v>127411.351</v>
       </c>
       <c r="U97" s="52">
         <v>24885.866000000002</v>
@@ -10580,13 +10580,13 @@
         <v>5151.9920000000002</v>
       </c>
       <c r="W97" s="52">
-        <v>675.16671360304201</v>
+        <v>679.58305034906698</v>
       </c>
       <c r="X97" s="52">
-        <v>647893.973</v>
+        <v>655103.78300000005</v>
       </c>
       <c r="Y97" s="52">
-        <v>29702.793000000001</v>
+        <v>29752.843000000001</v>
       </c>
       <c r="Z97" s="51">
         <v>858.5</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="AC97" s="52">
-        <v>2057.1708800000001</v>
+        <v>2113.4783200000002</v>
       </c>
       <c r="AD97" s="52">
-        <v>841.29418999999996</v>
+        <v>869.43469000000005</v>
       </c>
       <c r="AE97" s="53">
-        <v>446.43932000000001</v>
+        <v>474.57981999999998</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10615,91 +10615,91 @@
         <v>183</v>
       </c>
       <c r="C98" s="47">
-        <v>762952.2</v>
+        <v>813249.2</v>
       </c>
       <c r="D98" s="48">
-        <v>737054.8</v>
+        <v>785534.8</v>
       </c>
       <c r="E98" s="48">
-        <v>2126.3894</v>
+        <v>2201.0551999999998</v>
       </c>
       <c r="F98" s="48">
-        <v>244027</v>
+        <v>278206.40000000002</v>
       </c>
       <c r="G98" s="48">
-        <v>112031</v>
+        <v>114222.39999999999</v>
       </c>
       <c r="H98" s="48">
-        <v>99837.4</v>
+        <v>101888.9</v>
       </c>
       <c r="I98" s="48">
-        <v>177378.86</v>
+        <v>182426.96</v>
       </c>
       <c r="J98" s="47">
-        <v>15028.531199999999</v>
+        <v>15123.371999999999</v>
       </c>
       <c r="K98" s="48">
-        <v>258160.96739999999</v>
+        <v>258624.19940000001</v>
       </c>
       <c r="L98" s="47">
-        <v>688269.03689999995</v>
+        <v>700694.67689999996</v>
       </c>
       <c r="M98" s="48">
-        <v>230398.2377</v>
+        <v>230862.9859</v>
       </c>
       <c r="N98" s="48">
         <v>38854.931799999998</v>
       </c>
       <c r="O98" s="48">
-        <v>11834.614100000001</v>
+        <v>11846.736199999999</v>
       </c>
       <c r="P98" s="48">
         <v>35420.923600000002</v>
       </c>
       <c r="Q98" s="48">
-        <v>32209.136699999999</v>
+        <v>33296.177300000003</v>
       </c>
       <c r="R98" s="47">
-        <v>198808.56700000001</v>
+        <v>199175.66</v>
       </c>
       <c r="S98" s="48">
-        <v>193671.91500000001</v>
+        <v>194020.916</v>
       </c>
       <c r="T98" s="48">
-        <v>148716.304</v>
+        <v>148937.41800000001</v>
       </c>
       <c r="U98" s="48">
-        <v>47463.095999999998</v>
+        <v>47609.074999999997</v>
       </c>
       <c r="V98" s="47">
-        <v>3098.9560000000001</v>
+        <v>3117.0479999999998</v>
       </c>
       <c r="W98" s="48">
-        <v>468.07099157359801</v>
+        <v>469.73362772413498</v>
       </c>
       <c r="X98" s="48">
-        <v>203235.61600000001</v>
+        <v>203323.519</v>
       </c>
       <c r="Y98" s="48">
         <v>6782.8410000000003</v>
       </c>
       <c r="Z98" s="47">
-        <v>6017.1411600000001</v>
+        <v>6627.9411600000003</v>
       </c>
       <c r="AA98" s="48">
-        <v>728.98644000000002</v>
+        <v>748.98644000000002</v>
       </c>
       <c r="AB98" s="48">
-        <v>66.832999999999998</v>
+        <v>87.832999999999998</v>
       </c>
       <c r="AC98" s="48">
-        <v>7174.4616699999997</v>
+        <v>7462.4008199999998</v>
       </c>
       <c r="AD98" s="48">
-        <v>2616.99208</v>
+        <v>2652.9184799999998</v>
       </c>
       <c r="AE98" s="49">
-        <v>983.89268000000004</v>
+        <v>985.11247000000003</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.35">
@@ -11235,11 +11235,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{63AA53E8-23F6-4C8C-9E57-04FE824072F2}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{07C6B334-3FFD-4057-B90D-8929F3E4097F}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{88FEA56B-AB51-4BF8-8AD2-9B7EEF5A6330}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{ABC9E96E-B84C-4C5B-9A75-A4D92FC0DD8E}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{08DE4F40-A1C7-489A-994D-6E2A18FFBD91}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{807B1BAE-A959-44D9-9828-123A10E2E86E}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FF9C3CD4-3A50-4F75-8522-A3BF4571566C}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{9737F365-B8B7-4382-8338-61D8BD85E322}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{DD66281E-115A-4487-B341-035A8F396903}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{95B2D85D-477D-43AC-8297-DA20237D35A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab23.xlsx
+++ b/AfDD_2023_Annex_Table_Tab23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5206D9E3-8B58-422A-8B1C-50704F3AD5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD930033-6D04-42BB-8E1B-580DED9584CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7079882-6D5D-4511-BEB9-C505DDC7AA80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CBD60247-71AF-473D-8EBE-A8C81A7FFD16}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -1438,7 +1438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1C91F4-1A1A-4FB1-A2C6-C05DBA6E8124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9CC8F0-A7B4-4717-BB7E-EE3710ECC77B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11235,11 +11235,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{807B1BAE-A959-44D9-9828-123A10E2E86E}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FF9C3CD4-3A50-4F75-8522-A3BF4571566C}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{9737F365-B8B7-4382-8338-61D8BD85E322}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{DD66281E-115A-4487-B341-035A8F396903}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{95B2D85D-477D-43AC-8297-DA20237D35A3}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3898BC5D-AE8F-4365-9D31-BFBE77CCA837}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{0248A057-FECF-470B-82F7-CB714A6ED2F6}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{069B3423-FC72-4F4A-9FD1-A6C02A43B051}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D70E32A4-BB9A-414A-B481-A5FC80FD778A}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{2CEF5DFE-FA09-4D02-95BA-9DF078F15DC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab23.xlsx
+++ b/AfDD_2023_Annex_Table_Tab23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD930033-6D04-42BB-8E1B-580DED9584CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14F556E5-8AA4-4C80-AF8B-B8724C831339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CBD60247-71AF-473D-8EBE-A8C81A7FFD16}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{02800D9B-AEF0-40A4-9C97-E9FD007775A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <t>Non food agricultural production (millions of USD), 2020</t>
   </si>
   <si>
-    <t>Total food supply (kcal/cap), 2019</t>
+    <t>Total food supply (kcal/capita/day), 2019</t>
   </si>
   <si>
     <t>Production of wood products (thousands of cubic meters), 2020</t>
@@ -600,7 +600,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: FAOSTAT online dataset, Food and Agriculture Organization of the United Nations (retrieved 18/11/2021).</t>
@@ -1438,7 +1438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9CC8F0-A7B4-4717-BB7E-EE3710ECC77B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7CA49A-EB0F-43D0-9078-40BF0E732268}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1551,13 +1551,13 @@
       <c r="U2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="Y2" s="7" t="s">
@@ -1646,13 +1646,13 @@
       <c r="U3" s="12">
         <v>31.61</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="12">
         <v>2.8809999999999998</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="11">
         <v>767.27</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="11">
         <v>6266.48</v>
       </c>
       <c r="Y3" s="12">
@@ -1741,13 +1741,13 @@
       <c r="U4" s="16">
         <v>47.014000000000003</v>
       </c>
-      <c r="V4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="16">
+      <c r="V4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="15">
         <v>385.71</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="15">
         <v>804.56299999999999</v>
       </c>
       <c r="Y4" s="16">
@@ -1836,13 +1836,13 @@
       <c r="U5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="20">
+      <c r="V5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="19">
         <v>476.13</v>
       </c>
-      <c r="X5" s="20">
+      <c r="X5" s="19">
         <v>2355.819</v>
       </c>
       <c r="Y5" s="20">
@@ -1931,13 +1931,13 @@
       <c r="U6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W6" s="20">
+      <c r="V6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="19">
         <v>354.65</v>
       </c>
-      <c r="X6" s="20">
+      <c r="X6" s="19">
         <v>2166.4360000000001</v>
       </c>
       <c r="Y6" s="20">
@@ -2026,13 +2026,13 @@
       <c r="U7" s="20">
         <v>2164.5479999999998</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="20">
         <v>30.125</v>
       </c>
-      <c r="W7" s="20">
+      <c r="W7" s="19">
         <v>882.84</v>
       </c>
-      <c r="X7" s="20">
+      <c r="X7" s="19">
         <v>7647.4350000000004</v>
       </c>
       <c r="Y7" s="20">
@@ -2121,13 +2121,13 @@
       <c r="U8" s="20">
         <v>1053.79</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="20">
         <v>94.022999999999996</v>
       </c>
-      <c r="W8" s="20">
+      <c r="W8" s="19">
         <v>582.71</v>
       </c>
-      <c r="X8" s="20">
+      <c r="X8" s="19">
         <v>19273</v>
       </c>
       <c r="Y8" s="20">
@@ -2216,13 +2216,13 @@
       <c r="U9" s="20">
         <v>156.63300000000001</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="19">
         <v>592.57000000000005</v>
       </c>
-      <c r="X9" s="20">
+      <c r="X9" s="19">
         <v>2016.0809999999999</v>
       </c>
       <c r="Y9" s="20">
@@ -2311,13 +2311,13 @@
       <c r="U10" s="20">
         <v>9371.2279999999992</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="20">
         <v>707.75400000000002</v>
       </c>
-      <c r="W10" s="20">
+      <c r="W10" s="19">
         <v>510.13</v>
       </c>
-      <c r="X10" s="20">
+      <c r="X10" s="19">
         <v>34951.035000000003</v>
       </c>
       <c r="Y10" s="20">
@@ -2406,13 +2406,13 @@
       <c r="U11" s="16">
         <v>1007.962</v>
       </c>
-      <c r="V11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="16">
+      <c r="V11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="15">
         <v>524.41</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X11" s="15">
         <v>26141</v>
       </c>
       <c r="Y11" s="16">
@@ -2501,13 +2501,13 @@
       <c r="U12" s="20">
         <v>2.242</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12" s="20">
         <v>17.247</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="19">
         <v>194.4</v>
       </c>
-      <c r="X12" s="20">
+      <c r="X12" s="19">
         <v>10310.549000000001</v>
       </c>
       <c r="Y12" s="20">
@@ -2596,13 +2596,13 @@
       <c r="U13" s="25">
         <v>13835.027</v>
       </c>
-      <c r="V13" s="24">
+      <c r="V13" s="25">
         <v>852.32</v>
       </c>
-      <c r="W13" s="25">
+      <c r="W13" s="24">
         <v>578.76535802289902</v>
       </c>
-      <c r="X13" s="25">
+      <c r="X13" s="24">
         <v>111932.398</v>
       </c>
       <c r="Y13" s="25">
@@ -2691,13 +2691,13 @@
       <c r="U14" s="20">
         <v>241.161</v>
       </c>
-      <c r="V14" s="19">
+      <c r="V14" s="20">
         <v>17.54</v>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="19">
         <v>1353.15</v>
       </c>
-      <c r="X14" s="20">
+      <c r="X14" s="19">
         <v>6658.1130000000003</v>
       </c>
       <c r="Y14" s="20">
@@ -2786,13 +2786,13 @@
       <c r="U15" s="20">
         <v>394.68400000000003</v>
       </c>
-      <c r="V15" s="19">
+      <c r="V15" s="20">
         <v>156.24</v>
       </c>
-      <c r="W15" s="20">
+      <c r="W15" s="19">
         <v>980.5</v>
       </c>
-      <c r="X15" s="20">
+      <c r="X15" s="19">
         <v>15672.78</v>
       </c>
       <c r="Y15" s="20">
@@ -2881,13 +2881,13 @@
       <c r="U16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W16" s="20">
+      <c r="V16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="19">
         <v>854.17</v>
       </c>
-      <c r="X16" s="20">
+      <c r="X16" s="19">
         <v>2888.2130000000002</v>
       </c>
       <c r="Y16" s="20">
@@ -2976,13 +2976,13 @@
       <c r="U17" s="29">
         <v>1362.5630000000001</v>
       </c>
-      <c r="V17" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="W17" s="29">
+      <c r="V17" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="28">
         <v>491.92</v>
       </c>
-      <c r="X17" s="29">
+      <c r="X17" s="28">
         <v>8968.8449999999993</v>
       </c>
       <c r="Y17" s="29">
@@ -3071,13 +3071,13 @@
       <c r="U18" s="29">
         <v>633.745</v>
       </c>
-      <c r="V18" s="28">
+      <c r="V18" s="29">
         <v>2.4449999999999998</v>
       </c>
-      <c r="W18" s="29">
+      <c r="W18" s="28">
         <v>631.79</v>
       </c>
-      <c r="X18" s="29">
+      <c r="X18" s="28">
         <v>4310.0460000000003</v>
       </c>
       <c r="Y18" s="29">
@@ -3166,13 +3166,13 @@
       <c r="U19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W19" s="16">
+      <c r="V19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="15">
         <v>582.15</v>
       </c>
-      <c r="X19" s="16">
+      <c r="X19" s="15">
         <v>92519.323999999993</v>
       </c>
       <c r="Y19" s="16">
@@ -3261,13 +3261,13 @@
       <c r="U20" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="V20" s="28">
+      <c r="V20" s="29">
         <v>5.9260000000000002</v>
       </c>
-      <c r="W20" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="X20" s="29">
+      <c r="W20" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="28">
         <v>1836.3</v>
       </c>
       <c r="Y20" s="29">
@@ -3356,13 +3356,13 @@
       <c r="U21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="W21" s="29">
+      <c r="V21" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" s="28">
         <v>894.98</v>
       </c>
-      <c r="X21" s="29">
+      <c r="X21" s="28">
         <v>5161.8900000000003</v>
       </c>
       <c r="Y21" s="29">
@@ -3451,13 +3451,13 @@
       <c r="U22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V22" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W22" s="20">
+      <c r="V22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" s="19">
         <v>632.24</v>
       </c>
-      <c r="X22" s="20">
+      <c r="X22" s="19">
         <v>154.166</v>
       </c>
       <c r="Y22" s="20">
@@ -3546,13 +3546,13 @@
       <c r="U23" s="25">
         <v>2632.1529999999998</v>
       </c>
-      <c r="V23" s="24">
+      <c r="V23" s="25">
         <v>182.15100000000001</v>
       </c>
-      <c r="W23" s="25">
+      <c r="W23" s="24">
         <v>711.99713469168898</v>
       </c>
-      <c r="X23" s="25">
+      <c r="X23" s="24">
         <v>138169.677</v>
       </c>
       <c r="Y23" s="25">
@@ -3641,13 +3641,13 @@
       <c r="U24" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W24" s="20">
+      <c r="V24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="19">
         <v>558.16</v>
       </c>
-      <c r="X24" s="20">
+      <c r="X24" s="19">
         <v>360.15499999999997</v>
       </c>
       <c r="Y24" s="20">
@@ -3736,13 +3736,13 @@
       <c r="U25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W25" s="20">
+      <c r="V25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="19">
         <v>344.1</v>
       </c>
-      <c r="X25" s="20">
+      <c r="X25" s="19">
         <v>409.70800000000003</v>
       </c>
       <c r="Y25" s="20">
@@ -3831,13 +3831,13 @@
       <c r="U26" s="20">
         <v>1198.008</v>
       </c>
-      <c r="V26" s="19">
+      <c r="V26" s="20">
         <v>49.801000000000002</v>
       </c>
-      <c r="W26" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="X26" s="20">
+      <c r="W26" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="19">
         <v>1023.0309999999999</v>
       </c>
       <c r="Y26" s="20">
@@ -3926,13 +3926,13 @@
       <c r="U27" s="20">
         <v>5060.6610000000001</v>
       </c>
-      <c r="V27" s="19">
+      <c r="V27" s="20">
         <v>479.88299999999998</v>
       </c>
-      <c r="W27" s="20">
+      <c r="W27" s="19">
         <v>514.82000000000005</v>
       </c>
-      <c r="X27" s="20">
+      <c r="X27" s="19">
         <v>117518.63</v>
       </c>
       <c r="Y27" s="20">
@@ -4021,13 +4021,13 @@
       <c r="U28" s="20">
         <v>7525.7579999999998</v>
       </c>
-      <c r="V28" s="19">
+      <c r="V28" s="20">
         <v>1963.625</v>
       </c>
-      <c r="W28" s="20">
+      <c r="W28" s="19">
         <v>644.57000000000005</v>
       </c>
-      <c r="X28" s="20">
+      <c r="X28" s="19">
         <v>26315</v>
       </c>
       <c r="Y28" s="20">
@@ -4116,13 +4116,13 @@
       <c r="U29" s="20">
         <v>665.197</v>
       </c>
-      <c r="V29" s="19">
+      <c r="V29" s="20">
         <v>67.498000000000005</v>
       </c>
-      <c r="W29" s="20">
+      <c r="W29" s="19">
         <v>440.65</v>
       </c>
-      <c r="X29" s="20">
+      <c r="X29" s="19">
         <v>15509.584999999999</v>
       </c>
       <c r="Y29" s="20">
@@ -4211,13 +4211,13 @@
       <c r="U30" s="20">
         <v>105.538</v>
       </c>
-      <c r="V30" s="19">
+      <c r="V30" s="20">
         <v>1.55</v>
       </c>
-      <c r="W30" s="20">
+      <c r="W30" s="19">
         <v>399.89</v>
       </c>
-      <c r="X30" s="20">
+      <c r="X30" s="19">
         <v>6.5170000000000003</v>
       </c>
       <c r="Y30" s="20">
@@ -4306,13 +4306,13 @@
       <c r="U31" s="20">
         <v>424.48899999999998</v>
       </c>
-      <c r="V31" s="19">
+      <c r="V31" s="20">
         <v>12.782</v>
       </c>
-      <c r="W31" s="20">
+      <c r="W31" s="19">
         <v>1213.47</v>
       </c>
-      <c r="X31" s="20">
+      <c r="X31" s="19">
         <v>6346.9269999999997</v>
       </c>
       <c r="Y31" s="20">
@@ -4401,13 +4401,13 @@
       <c r="U32" s="20">
         <v>4.992</v>
       </c>
-      <c r="V32" s="19">
+      <c r="V32" s="20">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="W32" s="20">
+      <c r="W32" s="19">
         <v>475.18</v>
       </c>
-      <c r="X32" s="20">
+      <c r="X32" s="19">
         <v>12.84</v>
       </c>
       <c r="Y32" s="20">
@@ -4496,13 +4496,13 @@
       <c r="U33" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W33" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="X33" s="20">
+      <c r="V33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" s="19">
         <v>16558.763999999999</v>
       </c>
       <c r="Y33" s="20">
@@ -4591,13 +4591,13 @@
       <c r="U34" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="V34" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="W34" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="X34" s="29">
+      <c r="V34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="X34" s="28">
         <v>4770</v>
       </c>
       <c r="Y34" s="29">
@@ -4686,13 +4686,13 @@
       <c r="U35" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V35" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W35" s="20">
+      <c r="V35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35" s="19">
         <v>614.47</v>
       </c>
-      <c r="X35" s="20">
+      <c r="X35" s="19">
         <v>17240.393</v>
       </c>
       <c r="Y35" s="20">
@@ -4781,13 +4781,13 @@
       <c r="U36" s="20">
         <v>448.04399999999998</v>
       </c>
-      <c r="V36" s="19">
+      <c r="V36" s="20">
         <v>3.3639999999999999</v>
       </c>
-      <c r="W36" s="20">
+      <c r="W36" s="19">
         <v>673.08</v>
       </c>
-      <c r="X36" s="20">
+      <c r="X36" s="19">
         <v>28310.877</v>
       </c>
       <c r="Y36" s="20">
@@ -4876,13 +4876,13 @@
       <c r="U37" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V37" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W37" s="20">
+      <c r="V37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W37" s="19">
         <v>1072.05</v>
       </c>
-      <c r="X37" s="20">
+      <c r="X37" s="19">
         <v>50526.934999999998</v>
       </c>
       <c r="Y37" s="20">
@@ -4971,13 +4971,13 @@
       <c r="U38" s="25">
         <v>15432.687</v>
       </c>
-      <c r="V38" s="24">
+      <c r="V38" s="25">
         <v>2578.5889999999999</v>
       </c>
-      <c r="W38" s="25">
+      <c r="W38" s="24">
         <v>658.43796178346599</v>
       </c>
-      <c r="X38" s="25">
+      <c r="X38" s="24">
         <v>284909.36200000002</v>
       </c>
       <c r="Y38" s="25">
@@ -5066,13 +5066,13 @@
       <c r="U39" s="29">
         <v>6091.9340000000002</v>
       </c>
-      <c r="V39" s="28">
+      <c r="V39" s="29">
         <v>2.282</v>
       </c>
-      <c r="W39" s="29">
+      <c r="W39" s="28">
         <v>776.28</v>
       </c>
-      <c r="X39" s="29">
+      <c r="X39" s="28">
         <v>8990.0130000000008</v>
       </c>
       <c r="Y39" s="29">
@@ -5161,13 +5161,13 @@
       <c r="U40" s="20">
         <v>11747.098</v>
       </c>
-      <c r="V40" s="19">
+      <c r="V40" s="20">
         <v>34.667999999999999</v>
       </c>
-      <c r="W40" s="20">
+      <c r="W40" s="19">
         <v>816.25</v>
       </c>
-      <c r="X40" s="20">
+      <c r="X40" s="19">
         <v>18239.412</v>
       </c>
       <c r="Y40" s="20">
@@ -5256,13 +5256,13 @@
       <c r="U41" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="W41" s="29">
+      <c r="V41" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W41" s="28">
         <v>637.1</v>
       </c>
-      <c r="X41" s="29">
+      <c r="X41" s="28">
         <v>1208.8810000000001</v>
       </c>
       <c r="Y41" s="29">
@@ -5351,13 +5351,13 @@
       <c r="U42" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="V42" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="W42" s="29">
+      <c r="V42" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W42" s="28">
         <v>461.35</v>
       </c>
-      <c r="X42" s="29">
+      <c r="X42" s="28">
         <v>2298.6610000000001</v>
       </c>
       <c r="Y42" s="29">
@@ -5446,13 +5446,13 @@
       <c r="U43" s="20">
         <v>5446.1620000000003</v>
       </c>
-      <c r="V43" s="19">
+      <c r="V43" s="20">
         <v>1.8109999999999999</v>
       </c>
-      <c r="W43" s="20">
+      <c r="W43" s="19">
         <v>550.89</v>
       </c>
-      <c r="X43" s="20">
+      <c r="X43" s="19">
         <v>6849.1239999999998</v>
       </c>
       <c r="Y43" s="20">
@@ -5541,13 +5541,13 @@
       <c r="U44" s="20">
         <v>1286.0029999999999</v>
       </c>
-      <c r="V44" s="19">
+      <c r="V44" s="20">
         <v>1.1759999999999999</v>
       </c>
-      <c r="W44" s="20">
+      <c r="W44" s="19">
         <v>688.77</v>
       </c>
-      <c r="X44" s="20">
+      <c r="X44" s="19">
         <v>4069.7669999999998</v>
       </c>
       <c r="Y44" s="20">
@@ -5636,13 +5636,13 @@
       <c r="U45" s="25">
         <v>24571.197</v>
       </c>
-      <c r="V45" s="24">
+      <c r="V45" s="25">
         <v>39.936999999999998</v>
       </c>
-      <c r="W45" s="25">
+      <c r="W45" s="24">
         <v>741.07133995360095</v>
       </c>
-      <c r="X45" s="25">
+      <c r="X45" s="24">
         <v>41655.858</v>
       </c>
       <c r="Y45" s="25">
@@ -5731,13 +5731,13 @@
       <c r="U46" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V46" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W46" s="20">
+      <c r="V46" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W46" s="19">
         <v>1016.91</v>
       </c>
-      <c r="X46" s="20">
+      <c r="X46" s="19">
         <v>7209.81</v>
       </c>
       <c r="Y46" s="20">
@@ -5826,13 +5826,13 @@
       <c r="U47" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V47" s="19">
+      <c r="V47" s="20">
         <v>1.1319999999999999</v>
       </c>
-      <c r="W47" s="20">
+      <c r="W47" s="19">
         <v>308.41000000000003</v>
       </c>
-      <c r="X47" s="20">
+      <c r="X47" s="19">
         <v>15704.471</v>
       </c>
       <c r="Y47" s="20">
@@ -5921,13 +5921,13 @@
       <c r="U48" s="29">
         <v>56.143000000000001</v>
       </c>
-      <c r="V48" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="W48" s="29">
+      <c r="V48" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W48" s="28">
         <v>472.1</v>
       </c>
-      <c r="X48" s="29">
+      <c r="X48" s="28">
         <v>186</v>
       </c>
       <c r="Y48" s="29">
@@ -6016,13 +6016,13 @@
       <c r="U49" s="20">
         <v>628.67899999999997</v>
       </c>
-      <c r="V49" s="19">
+      <c r="V49" s="20">
         <v>2225.33</v>
       </c>
-      <c r="W49" s="20">
+      <c r="W49" s="19">
         <v>1166.53</v>
       </c>
-      <c r="X49" s="20">
+      <c r="X49" s="19">
         <v>12796.106</v>
       </c>
       <c r="Y49" s="20">
@@ -6111,13 +6111,13 @@
       <c r="U50" s="20">
         <v>136.81700000000001</v>
       </c>
-      <c r="V50" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W50" s="20">
+      <c r="V50" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W50" s="19">
         <v>150.05000000000001</v>
       </c>
-      <c r="X50" s="20">
+      <c r="X50" s="19">
         <v>946.99599999999998</v>
       </c>
       <c r="Y50" s="20">
@@ -6206,13 +6206,13 @@
       <c r="U51" s="16">
         <v>321.99799999999999</v>
       </c>
-      <c r="V51" s="15">
+      <c r="V51" s="16">
         <v>1.633</v>
       </c>
-      <c r="W51" s="16">
+      <c r="W51" s="15">
         <v>1823.52</v>
       </c>
-      <c r="X51" s="16">
+      <c r="X51" s="15">
         <v>53306.646999999997</v>
       </c>
       <c r="Y51" s="16">
@@ -6301,13 +6301,13 @@
       <c r="U52" s="20">
         <v>627.77099999999996</v>
       </c>
-      <c r="V52" s="19">
+      <c r="V52" s="20">
         <v>23.661999999999999</v>
       </c>
-      <c r="W52" s="20">
+      <c r="W52" s="19">
         <v>870.06</v>
       </c>
-      <c r="X52" s="20">
+      <c r="X52" s="19">
         <v>13127.034</v>
       </c>
       <c r="Y52" s="20">
@@ -6396,13 +6396,13 @@
       <c r="U53" s="20">
         <v>178.09700000000001</v>
       </c>
-      <c r="V53" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W53" s="20">
+      <c r="V53" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" s="19">
         <v>465.4</v>
       </c>
-      <c r="X53" s="20">
+      <c r="X53" s="19">
         <v>3111.2249999999999</v>
       </c>
       <c r="Y53" s="20">
@@ -6491,13 +6491,13 @@
       <c r="U54" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V54" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W54" s="20">
+      <c r="V54" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W54" s="19">
         <v>515.02</v>
       </c>
-      <c r="X54" s="20">
+      <c r="X54" s="19">
         <v>10369.412</v>
       </c>
       <c r="Y54" s="20">
@@ -6586,13 +6586,13 @@
       <c r="U55" s="20">
         <v>1389.152</v>
       </c>
-      <c r="V55" s="19">
+      <c r="V55" s="20">
         <v>1.748</v>
       </c>
-      <c r="W55" s="20">
+      <c r="W55" s="19">
         <v>536.62</v>
       </c>
-      <c r="X55" s="20">
+      <c r="X55" s="19">
         <v>7540.2830000000004</v>
       </c>
       <c r="Y55" s="20">
@@ -6681,13 +6681,13 @@
       <c r="U56" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V56" s="19">
+      <c r="V56" s="20">
         <v>1.6579999999999999</v>
       </c>
-      <c r="W56" s="20">
+      <c r="W56" s="19">
         <v>660.68</v>
       </c>
-      <c r="X56" s="20">
+      <c r="X56" s="19">
         <v>12809.120999999999</v>
       </c>
       <c r="Y56" s="20">
@@ -6776,13 +6776,13 @@
       <c r="U57" s="20">
         <v>1779.663</v>
       </c>
-      <c r="V57" s="19">
+      <c r="V57" s="20">
         <v>27.742999999999999</v>
       </c>
-      <c r="W57" s="20">
+      <c r="W57" s="19">
         <v>764.48</v>
       </c>
-      <c r="X57" s="20">
+      <c r="X57" s="19">
         <v>79004.695000000007</v>
       </c>
       <c r="Y57" s="20">
@@ -6871,13 +6871,13 @@
       <c r="U58" s="20">
         <v>179.958</v>
       </c>
-      <c r="V58" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W58" s="20">
+      <c r="V58" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W58" s="19">
         <v>376.86</v>
       </c>
-      <c r="X58" s="20">
+      <c r="X58" s="19">
         <v>6473.6440000000002</v>
       </c>
       <c r="Y58" s="20">
@@ -6966,13 +6966,13 @@
       <c r="U59" s="20">
         <v>21.823</v>
       </c>
-      <c r="V59" s="19">
+      <c r="V59" s="20">
         <v>0.26800000000000002</v>
       </c>
-      <c r="W59" s="20">
+      <c r="W59" s="19">
         <v>516.08000000000004</v>
       </c>
-      <c r="X59" s="20">
+      <c r="X59" s="19">
         <v>6385.7929999999997</v>
       </c>
       <c r="Y59" s="20">
@@ -7061,13 +7061,13 @@
       <c r="U60" s="16">
         <v>498.43900000000002</v>
       </c>
-      <c r="V60" s="15">
+      <c r="V60" s="16">
         <v>9.9779999999999998</v>
       </c>
-      <c r="W60" s="16">
+      <c r="W60" s="15">
         <v>729.04</v>
       </c>
-      <c r="X60" s="16">
+      <c r="X60" s="15">
         <v>4681.3119999999999</v>
       </c>
       <c r="Y60" s="16">
@@ -7156,13 +7156,13 @@
       <c r="U61" s="25">
         <v>5818.54</v>
       </c>
-      <c r="V61" s="24">
+      <c r="V61" s="25">
         <v>2293.152</v>
       </c>
-      <c r="W61" s="25">
+      <c r="W61" s="24">
         <v>814.41518198908796</v>
       </c>
-      <c r="X61" s="25">
+      <c r="X61" s="24">
         <v>233652.549</v>
       </c>
       <c r="Y61" s="25">
@@ -7251,13 +7251,13 @@
       <c r="U62" s="35">
         <v>62289.603999999999</v>
       </c>
-      <c r="V62" s="34">
+      <c r="V62" s="35">
         <v>5946.1490000000003</v>
       </c>
-      <c r="W62" s="35">
+      <c r="W62" s="34">
         <v>714.41277708164705</v>
       </c>
-      <c r="X62" s="35">
+      <c r="X62" s="34">
         <v>810319.84400000004</v>
       </c>
       <c r="Y62" s="35">
@@ -7346,13 +7346,13 @@
       <c r="U63" s="39">
         <v>1214316.699</v>
       </c>
-      <c r="V63" s="38">
+      <c r="V63" s="39">
         <v>78816.063999999998</v>
       </c>
-      <c r="W63" s="39">
+      <c r="W63" s="38">
         <v>572.73311941761494</v>
       </c>
-      <c r="X63" s="39">
+      <c r="X63" s="38">
         <v>4456747.6969999997</v>
       </c>
       <c r="Y63" s="39">
@@ -7441,13 +7441,13 @@
       <c r="U64" s="35">
         <v>121822.853</v>
       </c>
-      <c r="V64" s="34">
+      <c r="V64" s="35">
         <v>13556.297</v>
       </c>
-      <c r="W64" s="35">
+      <c r="W64" s="34">
         <v>835.44993233742196</v>
       </c>
-      <c r="X64" s="35">
+      <c r="X64" s="34">
         <v>612759.179</v>
       </c>
       <c r="Y64" s="35">
@@ -7536,13 +7536,13 @@
       <c r="U65" s="44">
         <v>697231.696</v>
       </c>
-      <c r="V65" s="43">
+      <c r="V65" s="44">
         <v>56834.87</v>
       </c>
-      <c r="W65" s="44">
+      <c r="W65" s="43">
         <v>487.16062451144501</v>
       </c>
-      <c r="X65" s="44">
+      <c r="X65" s="43">
         <v>1586102.2590000001</v>
       </c>
       <c r="Y65" s="44">
@@ -7631,13 +7631,13 @@
       <c r="U66" s="48">
         <v>1276606.3030000001</v>
       </c>
-      <c r="V66" s="47">
+      <c r="V66" s="48">
         <v>84762.212999999902</v>
       </c>
-      <c r="W66" s="48">
+      <c r="W66" s="47">
         <v>602.06183014156704</v>
       </c>
-      <c r="X66" s="48">
+      <c r="X66" s="47">
         <v>5267067.5410000002</v>
       </c>
       <c r="Y66" s="48">
@@ -7726,13 +7726,13 @@
       <c r="U67" s="52">
         <v>31433.656999999999</v>
       </c>
-      <c r="V67" s="51">
+      <c r="V67" s="52">
         <v>2675.9810000000002</v>
       </c>
-      <c r="W67" s="52">
+      <c r="W67" s="51">
         <v>679.03967857158398</v>
       </c>
-      <c r="X67" s="52">
+      <c r="X67" s="51">
         <v>420978.78499999997</v>
       </c>
       <c r="Y67" s="52">
@@ -7821,13 +7821,13 @@
       <c r="U68" s="44">
         <v>26802.231</v>
       </c>
-      <c r="V68" s="43">
+      <c r="V68" s="44">
         <v>2380.6080000000002</v>
       </c>
-      <c r="W68" s="44">
+      <c r="W68" s="43">
         <v>772.01540562654998</v>
       </c>
-      <c r="X68" s="44">
+      <c r="X68" s="43">
         <v>303212.09100000001</v>
       </c>
       <c r="Y68" s="44">
@@ -7916,13 +7916,13 @@
       <c r="U69" s="44">
         <v>8639.4519999999993</v>
       </c>
-      <c r="V69" s="43">
+      <c r="V69" s="44">
         <v>1997.3109999999999</v>
       </c>
-      <c r="W69" s="44">
+      <c r="W69" s="43">
         <v>756.98472181198099</v>
       </c>
-      <c r="X69" s="44">
+      <c r="X69" s="43">
         <v>215447.17600000001</v>
       </c>
       <c r="Y69" s="44">
@@ -8011,13 +8011,13 @@
       <c r="U70" s="44">
         <v>3088.252</v>
       </c>
-      <c r="V70" s="43">
+      <c r="V70" s="44">
         <v>197.81399999999999</v>
       </c>
-      <c r="W70" s="44">
+      <c r="W70" s="43">
         <v>752.68987258498305</v>
       </c>
-      <c r="X70" s="44">
+      <c r="X70" s="43">
         <v>150783.084</v>
       </c>
       <c r="Y70" s="44">
@@ -8106,13 +8106,13 @@
       <c r="U71" s="44">
         <v>5818.54</v>
       </c>
-      <c r="V71" s="43">
+      <c r="V71" s="44">
         <v>2293.152</v>
       </c>
-      <c r="W71" s="44">
+      <c r="W71" s="43">
         <v>814.41518198908796</v>
       </c>
-      <c r="X71" s="44">
+      <c r="X71" s="43">
         <v>233652.549</v>
       </c>
       <c r="Y71" s="44">
@@ -8201,13 +8201,13 @@
       <c r="U72" s="44">
         <v>13784.427</v>
       </c>
-      <c r="V72" s="43">
+      <c r="V72" s="44">
         <v>2493.3090000000002</v>
       </c>
-      <c r="W72" s="44">
+      <c r="W72" s="43">
         <v>652.21379181609598</v>
       </c>
-      <c r="X72" s="44">
+      <c r="X72" s="43">
         <v>234362.46100000001</v>
       </c>
       <c r="Y72" s="44">
@@ -8296,13 +8296,13 @@
       <c r="U73" s="44">
         <v>15058.798000000001</v>
       </c>
-      <c r="V73" s="43">
+      <c r="V73" s="44">
         <v>924.81799999999998</v>
       </c>
-      <c r="W73" s="44">
+      <c r="W73" s="43">
         <v>583.99671343865805</v>
       </c>
-      <c r="X73" s="44">
+      <c r="X73" s="43">
         <v>248651.696</v>
       </c>
       <c r="Y73" s="44">
@@ -8391,13 +8391,13 @@
       <c r="U74" s="44">
         <v>12824.099</v>
       </c>
-      <c r="V74" s="43">
+      <c r="V74" s="44">
         <v>5.2690000000000001</v>
       </c>
-      <c r="W74" s="44">
+      <c r="W74" s="43">
         <v>663.23473114375804</v>
       </c>
-      <c r="X74" s="44">
+      <c r="X74" s="43">
         <v>23416.446</v>
       </c>
       <c r="Y74" s="44">
@@ -8486,13 +8486,13 @@
       <c r="U75" s="48">
         <v>1319.64</v>
       </c>
-      <c r="V75" s="47">
+      <c r="V75" s="48">
         <v>96.903999999999996</v>
       </c>
-      <c r="W75" s="48">
+      <c r="W75" s="47">
         <v>669.66286776534696</v>
       </c>
-      <c r="X75" s="48">
+      <c r="X75" s="47">
         <v>28990.870999999999</v>
       </c>
       <c r="Y75" s="48">
@@ -8581,13 +8581,13 @@
       <c r="U76" s="52">
         <v>73420.928</v>
       </c>
-      <c r="V76" s="51">
+      <c r="V76" s="52">
         <v>15389.906000000001</v>
       </c>
-      <c r="W76" s="52">
+      <c r="W76" s="51">
         <v>460.46260167295497</v>
       </c>
-      <c r="X76" s="52">
+      <c r="X76" s="51">
         <v>373454.79599999997</v>
       </c>
       <c r="Y76" s="52">
@@ -8676,13 +8676,13 @@
       <c r="U77" s="44">
         <v>94118.618000000002</v>
       </c>
-      <c r="V77" s="43">
+      <c r="V77" s="44">
         <v>11770.566999999999</v>
       </c>
-      <c r="W77" s="44">
+      <c r="W77" s="43">
         <v>957.74728145051904</v>
       </c>
-      <c r="X77" s="44">
+      <c r="X77" s="43">
         <v>497142.42300000001</v>
       </c>
       <c r="Y77" s="44">
@@ -8771,13 +8771,13 @@
       <c r="U78" s="44">
         <v>142556.927</v>
       </c>
-      <c r="V78" s="43">
+      <c r="V78" s="44">
         <v>1050.1659999999999</v>
       </c>
-      <c r="W78" s="44">
+      <c r="W78" s="43">
         <v>522.25606891132702</v>
       </c>
-      <c r="X78" s="44">
+      <c r="X78" s="43">
         <v>778753.01800000004</v>
       </c>
       <c r="Y78" s="44">
@@ -8866,13 +8866,13 @@
       <c r="U79" s="48">
         <v>372999.18</v>
       </c>
-      <c r="V79" s="47">
+      <c r="V79" s="48">
         <v>11697.629000000001</v>
       </c>
-      <c r="W79" s="48">
+      <c r="W79" s="47">
         <v>615.01586533138698</v>
       </c>
-      <c r="X79" s="48">
+      <c r="X79" s="47">
         <v>1952994.5959999999</v>
       </c>
       <c r="Y79" s="48">
@@ -8961,13 +8961,13 @@
       <c r="U80" s="52">
         <v>8175.9949999999999</v>
       </c>
-      <c r="V80" s="51">
+      <c r="V80" s="52">
         <v>13.534000000000001</v>
       </c>
-      <c r="W80" s="52">
+      <c r="W80" s="51">
         <v>704.92833769968695</v>
       </c>
-      <c r="X80" s="52">
+      <c r="X80" s="51">
         <v>43997.116000000002</v>
       </c>
       <c r="Y80" s="52">
@@ -9056,13 +9056,13 @@
       <c r="U81" s="44">
         <v>77976.714000000007</v>
       </c>
-      <c r="V81" s="43">
+      <c r="V81" s="44">
         <v>2339.89</v>
       </c>
-      <c r="W81" s="44">
+      <c r="W81" s="43">
         <v>640.09376483790004</v>
       </c>
-      <c r="X81" s="44">
+      <c r="X81" s="43">
         <v>336911.02399999998</v>
       </c>
       <c r="Y81" s="44">
@@ -9151,13 +9151,13 @@
       <c r="U82" s="44">
         <v>54113.608999999997</v>
       </c>
-      <c r="V82" s="43">
+      <c r="V82" s="44">
         <v>5932.6149999999998</v>
       </c>
-      <c r="W82" s="44">
+      <c r="W82" s="43">
         <v>715.29824994873502</v>
       </c>
-      <c r="X82" s="44">
+      <c r="X82" s="43">
         <v>766322.728</v>
       </c>
       <c r="Y82" s="44">
@@ -9246,13 +9246,13 @@
       <c r="U83" s="48">
         <v>1136339.9850000001</v>
       </c>
-      <c r="V83" s="47">
+      <c r="V83" s="48">
         <v>76476.173999999999</v>
       </c>
-      <c r="W83" s="48">
+      <c r="W83" s="47">
         <v>565.34489989547706</v>
       </c>
-      <c r="X83" s="48">
+      <c r="X83" s="47">
         <v>4119836.673</v>
       </c>
       <c r="Y83" s="48">
@@ -9341,13 +9341,13 @@
       <c r="U84" s="52">
         <v>16030.477999999999</v>
       </c>
-      <c r="V84" s="51">
+      <c r="V84" s="52">
         <v>790.09799999999996</v>
       </c>
-      <c r="W84" s="52">
+      <c r="W84" s="51">
         <v>639.38306112763303</v>
       </c>
-      <c r="X84" s="52">
+      <c r="X84" s="51">
         <v>468265.842</v>
       </c>
       <c r="Y84" s="52">
@@ -9436,13 +9436,13 @@
       <c r="U85" s="44">
         <v>5226.9840000000004</v>
       </c>
-      <c r="V85" s="43">
+      <c r="V85" s="44">
         <v>484.548</v>
       </c>
-      <c r="W85" s="44">
+      <c r="W85" s="43">
         <v>442.25652757520902</v>
       </c>
-      <c r="X85" s="44">
+      <c r="X85" s="43">
         <v>12758.498</v>
       </c>
       <c r="Y85" s="44">
@@ -9531,13 +9531,13 @@
       <c r="U86" s="44">
         <v>36573.720999999998</v>
       </c>
-      <c r="V86" s="43">
+      <c r="V86" s="44">
         <v>4440.4449999999997</v>
       </c>
-      <c r="W86" s="44">
+      <c r="W86" s="43">
         <v>792.59854707928002</v>
       </c>
-      <c r="X86" s="44">
+      <c r="X86" s="43">
         <v>296055.89500000002</v>
       </c>
       <c r="Y86" s="44">
@@ -9626,13 +9626,13 @@
       <c r="U87" s="44">
         <v>217154.231</v>
       </c>
-      <c r="V87" s="43">
+      <c r="V87" s="44">
         <v>17202.02</v>
       </c>
-      <c r="W87" s="44">
+      <c r="W87" s="43">
         <v>503.70847914792199</v>
       </c>
-      <c r="X87" s="44">
+      <c r="X87" s="43">
         <v>825820.12500000105</v>
       </c>
       <c r="Y87" s="44">
@@ -9721,13 +9721,13 @@
       <c r="U88" s="44">
         <v>9680.4130000000005</v>
       </c>
-      <c r="V88" s="43">
+      <c r="V88" s="44">
         <v>715.52</v>
       </c>
-      <c r="W88" s="44">
+      <c r="W88" s="43">
         <v>529.88621008845405</v>
       </c>
-      <c r="X88" s="44">
+      <c r="X88" s="43">
         <v>45985.267</v>
       </c>
       <c r="Y88" s="44">
@@ -9816,13 +9816,13 @@
       <c r="U89" s="44">
         <v>660914.02500000002</v>
       </c>
-      <c r="V89" s="43">
+      <c r="V89" s="44">
         <v>53850.137999999999</v>
       </c>
-      <c r="W89" s="44">
+      <c r="W89" s="43">
         <v>784.68590995808199</v>
       </c>
-      <c r="X89" s="44">
+      <c r="X89" s="43">
         <v>1715551.3629999999</v>
       </c>
       <c r="Y89" s="44">
@@ -9911,13 +9911,13 @@
       <c r="U90" s="48">
         <v>331026.451</v>
       </c>
-      <c r="V90" s="47">
+      <c r="V90" s="48">
         <v>7279.4440000000004</v>
       </c>
-      <c r="W90" s="48">
+      <c r="W90" s="47">
         <v>563.60999066376405</v>
       </c>
-      <c r="X90" s="48">
+      <c r="X90" s="47">
         <v>1895359.899</v>
       </c>
       <c r="Y90" s="48">
@@ -10006,13 +10006,13 @@
       <c r="U91" s="52">
         <v>16690.09</v>
       </c>
-      <c r="V91" s="51">
+      <c r="V91" s="52">
         <v>796.34299999999996</v>
       </c>
-      <c r="W91" s="52">
+      <c r="W91" s="51">
         <v>646.60674755142497</v>
       </c>
-      <c r="X91" s="52">
+      <c r="X91" s="51">
         <v>521915.77899999998</v>
       </c>
       <c r="Y91" s="52">
@@ -10101,13 +10101,13 @@
       <c r="U92" s="44">
         <v>13215.002</v>
       </c>
-      <c r="V92" s="43">
+      <c r="V92" s="44">
         <v>1050.4179999999999</v>
       </c>
-      <c r="W92" s="44">
+      <c r="W92" s="43">
         <v>391.57949302628799</v>
       </c>
-      <c r="X92" s="44">
+      <c r="X92" s="43">
         <v>115442.845</v>
       </c>
       <c r="Y92" s="44">
@@ -10196,13 +10196,13 @@
       <c r="U93" s="44">
         <v>344.77</v>
       </c>
-      <c r="V93" s="43">
+      <c r="V93" s="44">
         <v>1.6359999999999999</v>
       </c>
-      <c r="W93" s="44">
+      <c r="W93" s="43">
         <v>471.28308758343701</v>
       </c>
-      <c r="X93" s="44">
+      <c r="X93" s="43">
         <v>3830.9029999999998</v>
       </c>
       <c r="Y93" s="44">
@@ -10291,13 +10291,13 @@
       <c r="U94" s="44">
         <v>1647.175</v>
       </c>
-      <c r="V94" s="43">
+      <c r="V94" s="44">
         <v>85.953000000000003</v>
       </c>
-      <c r="W94" s="44">
+      <c r="W94" s="43">
         <v>831.306967302668</v>
       </c>
-      <c r="X94" s="44">
+      <c r="X94" s="43">
         <v>24330.088</v>
       </c>
       <c r="Y94" s="44">
@@ -10386,13 +10386,13 @@
       <c r="U95" s="44">
         <v>11699.791999999999</v>
       </c>
-      <c r="V95" s="43">
+      <c r="V95" s="44">
         <v>562.11500000000001</v>
       </c>
-      <c r="W95" s="44">
+      <c r="W95" s="43">
         <v>653.44589533315605</v>
       </c>
-      <c r="X95" s="44">
+      <c r="X95" s="43">
         <v>283157.34000000003</v>
       </c>
       <c r="Y95" s="44">
@@ -10481,13 +10481,13 @@
       <c r="U96" s="48">
         <v>17785.323</v>
       </c>
-      <c r="V96" s="47">
+      <c r="V96" s="48">
         <v>952.88099999999997</v>
       </c>
-      <c r="W96" s="48">
+      <c r="W96" s="47">
         <v>732.95591853790199</v>
       </c>
-      <c r="X96" s="48">
+      <c r="X96" s="47">
         <v>58359.074999999997</v>
       </c>
       <c r="Y96" s="48">
@@ -10520,73 +10520,73 @@
         <v>182</v>
       </c>
       <c r="C97" s="51">
-        <v>2263070.8870999999</v>
+        <v>1469681.5544</v>
       </c>
       <c r="D97" s="52">
-        <v>2226634.3094000001</v>
+        <v>1447357.2265000001</v>
       </c>
       <c r="E97" s="52">
-        <v>2483.3953999999999</v>
+        <v>1960.5377000000001</v>
       </c>
       <c r="F97" s="52">
-        <v>841053.18200000003</v>
+        <v>589939.82200000004</v>
       </c>
       <c r="G97" s="52">
-        <v>227087.44</v>
+        <v>176730.3</v>
       </c>
       <c r="H97" s="52">
-        <v>200436.74</v>
+        <v>152891.6</v>
       </c>
       <c r="I97" s="52">
-        <v>546204.42000000004</v>
+        <v>336207.31</v>
       </c>
       <c r="J97" s="51">
-        <v>43701.464899999999</v>
+        <v>17588.062399999999</v>
       </c>
       <c r="K97" s="52">
-        <v>1140108.7282</v>
+        <v>450626.97869999998</v>
       </c>
       <c r="L97" s="51">
-        <v>974963.31759999995</v>
+        <v>683239.71470000001</v>
       </c>
       <c r="M97" s="52">
-        <v>1143686.2660000001</v>
+        <v>419208.54220000003</v>
       </c>
       <c r="N97" s="52">
-        <v>75005.770999999993</v>
+        <v>73123.818700000003</v>
       </c>
       <c r="O97" s="52">
-        <v>100145.6009</v>
+        <v>62472.796600000001</v>
       </c>
       <c r="P97" s="52">
-        <v>9991.1857999999993</v>
+        <v>8916.6134999999995</v>
       </c>
       <c r="Q97" s="52">
-        <v>12398.6978</v>
+        <v>10864.0401</v>
       </c>
       <c r="R97" s="51">
-        <v>154222.285</v>
+        <v>141345.74</v>
       </c>
       <c r="S97" s="52">
-        <v>147150.228</v>
+        <v>134349.39600000001</v>
       </c>
       <c r="T97" s="52">
-        <v>127411.351</v>
+        <v>117970.283</v>
       </c>
       <c r="U97" s="52">
-        <v>24885.866000000002</v>
-      </c>
-      <c r="V97" s="51">
-        <v>5151.9920000000002</v>
-      </c>
-      <c r="W97" s="52">
-        <v>679.58305034906698</v>
-      </c>
-      <c r="X97" s="52">
-        <v>655103.78300000005</v>
+        <v>21450.388999999999</v>
+      </c>
+      <c r="V97" s="52">
+        <v>5076.28</v>
+      </c>
+      <c r="W97" s="51">
+        <v>687.23200285155394</v>
+      </c>
+      <c r="X97" s="51">
+        <v>498330.75400000002</v>
       </c>
       <c r="Y97" s="52">
-        <v>29752.843000000001</v>
+        <v>23482.256000000001</v>
       </c>
       <c r="Z97" s="51">
         <v>858.5</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="AC97" s="52">
-        <v>2113.4783200000002</v>
+        <v>1955.63258</v>
       </c>
       <c r="AD97" s="52">
-        <v>869.43469000000005</v>
+        <v>826.12345000000005</v>
       </c>
       <c r="AE97" s="53">
-        <v>474.57981999999998</v>
+        <v>464.53843000000001</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10615,91 +10615,91 @@
         <v>183</v>
       </c>
       <c r="C98" s="47">
-        <v>813249.2</v>
+        <v>630368</v>
       </c>
       <c r="D98" s="48">
-        <v>785534.8</v>
+        <v>602983</v>
       </c>
       <c r="E98" s="48">
-        <v>2201.0551999999998</v>
+        <v>1715.6668999999999</v>
       </c>
       <c r="F98" s="48">
-        <v>278206.40000000002</v>
+        <v>191387.4</v>
       </c>
       <c r="G98" s="48">
-        <v>114222.39999999999</v>
+        <v>92343.4</v>
       </c>
       <c r="H98" s="48">
-        <v>101888.9</v>
+        <v>82169.899999999994</v>
       </c>
       <c r="I98" s="48">
-        <v>182426.96</v>
+        <v>178975.14</v>
       </c>
       <c r="J98" s="47">
-        <v>15123.371999999999</v>
+        <v>15057.7844</v>
       </c>
       <c r="K98" s="48">
-        <v>258624.19940000001</v>
+        <v>257334.97940000001</v>
       </c>
       <c r="L98" s="47">
-        <v>700694.67689999996</v>
+        <v>652647.12459999998</v>
       </c>
       <c r="M98" s="48">
-        <v>230862.9859</v>
+        <v>229450.60680000001</v>
       </c>
       <c r="N98" s="48">
-        <v>38854.931799999998</v>
+        <v>38978.090900000003</v>
       </c>
       <c r="O98" s="48">
-        <v>11846.736199999999</v>
+        <v>11846.3465</v>
       </c>
       <c r="P98" s="48">
-        <v>35420.923600000002</v>
+        <v>33918.995699999999</v>
       </c>
       <c r="Q98" s="48">
-        <v>33296.177300000003</v>
+        <v>29131.8842</v>
       </c>
       <c r="R98" s="47">
-        <v>199175.66</v>
+        <v>183786.71900000001</v>
       </c>
       <c r="S98" s="48">
-        <v>194020.916</v>
+        <v>179113.20300000001</v>
       </c>
       <c r="T98" s="48">
-        <v>148937.41800000001</v>
+        <v>139259.41500000001</v>
       </c>
       <c r="U98" s="48">
-        <v>47609.074999999997</v>
-      </c>
-      <c r="V98" s="47">
-        <v>3117.0479999999998</v>
-      </c>
-      <c r="W98" s="48">
-        <v>469.73362772413498</v>
-      </c>
-      <c r="X98" s="48">
-        <v>203323.519</v>
+        <v>41898.345000000001</v>
+      </c>
+      <c r="V98" s="48">
+        <v>2632.5</v>
+      </c>
+      <c r="W98" s="47">
+        <v>491.21483270033099</v>
+      </c>
+      <c r="X98" s="47">
+        <v>196069.80900000001</v>
       </c>
       <c r="Y98" s="48">
-        <v>6782.8410000000003</v>
+        <v>6248.3069999999998</v>
       </c>
       <c r="Z98" s="47">
-        <v>6627.9411600000003</v>
+        <v>6499.3127599999998</v>
       </c>
       <c r="AA98" s="48">
-        <v>748.98644000000002</v>
+        <v>744.69</v>
       </c>
       <c r="AB98" s="48">
         <v>87.832999999999998</v>
       </c>
       <c r="AC98" s="48">
-        <v>7462.4008199999998</v>
+        <v>7213.0374300000003</v>
       </c>
       <c r="AD98" s="48">
-        <v>2652.9184799999998</v>
+        <v>2525.4867399999998</v>
       </c>
       <c r="AE98" s="49">
-        <v>985.11247000000003</v>
+        <v>976.24905999999999</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.35">
@@ -11235,11 +11235,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3898BC5D-AE8F-4365-9D31-BFBE77CCA837}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{0248A057-FECF-470B-82F7-CB714A6ED2F6}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{069B3423-FC72-4F4A-9FD1-A6C02A43B051}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D70E32A4-BB9A-414A-B481-A5FC80FD778A}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{2CEF5DFE-FA09-4D02-95BA-9DF078F15DC0}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A9275071-EF7D-4C04-A98F-7E8A2B7D4778}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F68F966E-2622-42FA-90F1-4EABAEF8276B}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{F533B9A0-8CD5-4959-9F50-D0162D8880E2}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BACF8FA9-5233-433A-83B7-841AA3C62A07}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{8F332554-8755-4DE6-B161-A82FEF536743}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab23.xlsx
+++ b/AfDD_2023_Annex_Table_Tab23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14F556E5-8AA4-4C80-AF8B-B8724C831339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3272F7C-2884-4324-8FC0-EC1EED25B177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{02800D9B-AEF0-40A4-9C97-E9FD007775A7}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{6DEFF754-F825-4F52-A0AF-74B111DBAF63}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="195">
   <si>
     <t>Table 23: Ecological sustainability</t>
   </si>
@@ -609,16 +609,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7CA49A-EB0F-43D0-9078-40BF0E732268}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03BB28B-47A3-4C2F-B681-1ADFC23C89D6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11035,7 +11038,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C109" s="56"/>
       <c r="D109" s="56"/>
@@ -11069,7 +11072,7 @@
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C110" s="56"/>
       <c r="D110" s="56"/>
@@ -11102,7 +11105,9 @@
       <c r="AE110" s="56"/>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="C111" s="56"/>
       <c r="D111" s="56"/>
       <c r="E111" s="56"/>
@@ -11135,7 +11140,7 @@
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C112" s="56"/>
       <c r="D112" s="56"/>
@@ -11169,7 +11174,7 @@
     </row>
     <row r="113" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C113" s="56"/>
       <c r="D113" s="56"/>
@@ -11235,13 +11240,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A9275071-EF7D-4C04-A98F-7E8A2B7D4778}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F68F966E-2622-42FA-90F1-4EABAEF8276B}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{F533B9A0-8CD5-4959-9F50-D0162D8880E2}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BACF8FA9-5233-433A-83B7-841AA3C62A07}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{8F332554-8755-4DE6-B161-A82FEF536743}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{813FE670-96D5-497D-9F1D-1D949CC9A603}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BE60D559-51E1-4574-86D8-08F8EA970599}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{0B70F349-4020-44B9-A8F0-EB1C4A711B49}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{DEE00D0C-8754-4299-8712-DDDED67AAB13}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{BED5D01D-F4CB-46C7-B538-6CAF9D0804A0}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{DC06A957-8BFB-4164-883D-452364FB6E46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab23.xlsx
+++ b/AfDD_2023_Annex_Table_Tab23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3272F7C-2884-4324-8FC0-EC1EED25B177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDA5C1CE-46E0-452F-8BC1-46FAC18A3086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{6DEFF754-F825-4F52-A0AF-74B111DBAF63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{FFE32328-EC39-410D-AFA5-F352243FC086}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab23'!$A$2:$P$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab23'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1441,7 +1441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03BB28B-47A3-4C2F-B681-1ADFC23C89D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F66B133-C98E-4F31-8570-DEDA7BF7BFF3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1449,14 +1449,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="31" width="12.36328125" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="31" width="12.33203125" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1490,7 +1490,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>10.07386</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>1.6664000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>18.623000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>7.3497899999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>45</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0.18614</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>47</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>49</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>53.551609999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>51</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>53</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>260.35079999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>55</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>3.6869399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>57</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>23.659600000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>59</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>61</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>63</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>1.42869</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>65</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>3.1353599999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>67</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>2.2675299999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>71</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>53</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>34.275320000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>76</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>78</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>80</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>1.72814</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>82</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>30.483350000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>84</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>5.79108</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>86</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>3.4115799999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>88</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>4.0302300000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>90</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>1.9609999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>92</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>94</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>96</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>1.6932</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>98</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>17.737400000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>100</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>5.0975299999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>53</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>69.99212</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>103</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>105</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>107</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>1.21329</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>109</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>111</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>102.02142000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>113</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>53</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>260.63470999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>116</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>28.140499999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>118</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>24.875050000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>120</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>122</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>58.074129999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>124</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>0.22398999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>126</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>128</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>6.2442099999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>130</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>132</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>134</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>34.231990000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>136</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>3.66811</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>138</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>113.7</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>140</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>17.301089999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>142</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>144</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>1.7948</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>53</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>359.05387000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>53</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>984.30682000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>53</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>38172.479449999999</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>53</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>9046.0555399999994</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>53</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>18320.4935</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41" t="s">
         <v>53</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>39156.786269999997</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>53</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>300.06491999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>53</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>594.77898000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>53</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>64.170810000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>53</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>48.37941</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>53</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>359.05387000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>53</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>39.002220000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>53</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>290.44583</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>53</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>135.63471000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41" t="s">
         <v>53</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>17.423649999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>53</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>4368.9229299999997</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>53</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>8365.4426000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>53</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>2990.98855</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41" t="s">
         <v>53</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>10049.404060000001</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>53</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>41.683369999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>53</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>900.09169999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>53</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>942.62345000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41" t="s">
         <v>53</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>37272.387750000002</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>53</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>175.82222999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>53</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>4.0636799999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>53</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>667.72004000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>53</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>7127.9696400000003</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>53</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>140.74494000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>53</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>21525.686129999998</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41" t="s">
         <v>53</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>9428.1796100000101</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>53</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>249.07508000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>53</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>610.71848</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>53</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>3.43119</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>53</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>102.53394</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>53</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>188.15620000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41" t="s">
         <v>53</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>336.12898999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>53</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>464.53843000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41" t="s">
         <v>53</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>976.24905999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="35"/>
@@ -10738,7 +10738,7 @@
       <c r="AD99" s="35"/>
       <c r="AE99" s="35"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>184</v>
       </c>
@@ -10772,7 +10772,7 @@
       <c r="AD100" s="56"/>
       <c r="AE100" s="56"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>185</v>
       </c>
@@ -10806,7 +10806,7 @@
       <c r="AD101" s="56"/>
       <c r="AE101" s="56"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>186</v>
       </c>
@@ -10840,7 +10840,7 @@
       <c r="AD102" s="56"/>
       <c r="AE102" s="56"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>187</v>
       </c>
@@ -10874,7 +10874,7 @@
       <c r="AD103" s="56"/>
       <c r="AE103" s="56"/>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>188</v>
       </c>
@@ -10908,7 +10908,7 @@
       <c r="AD104" s="56"/>
       <c r="AE104" s="56"/>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C105" s="56"/>
       <c r="D105" s="56"/>
       <c r="E105" s="56"/>
@@ -10939,7 +10939,7 @@
       <c r="AD105" s="56"/>
       <c r="AE105" s="56"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C106" s="56"/>
       <c r="D106" s="56"/>
       <c r="E106" s="56"/>
@@ -10970,7 +10970,7 @@
       <c r="AD106" s="56"/>
       <c r="AE106" s="56"/>
     </row>
-    <row r="107" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="57" t="s">
         <v>189</v>
       </c>
@@ -11004,7 +11004,7 @@
       <c r="AD107" s="56"/>
       <c r="AE107" s="56"/>
     </row>
-    <row r="108" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="57"/>
       <c r="C108" s="56"/>
       <c r="D108" s="56"/>
@@ -11036,7 +11036,7 @@
       <c r="AD108" s="56"/>
       <c r="AE108" s="56"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>192</v>
       </c>
@@ -11070,7 +11070,7 @@
       <c r="AD109" s="56"/>
       <c r="AE109" s="56"/>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>193</v>
       </c>
@@ -11104,7 +11104,7 @@
       <c r="AD110" s="56"/>
       <c r="AE110" s="56"/>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>194</v>
       </c>
@@ -11138,7 +11138,7 @@
       <c r="AD111" s="56"/>
       <c r="AE111" s="56"/>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>190</v>
       </c>
@@ -11172,7 +11172,7 @@
       <c r="AD112" s="56"/>
       <c r="AE112" s="56"/>
     </row>
-    <row r="113" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>191</v>
       </c>
@@ -11206,7 +11206,7 @@
       <c r="AD113" s="56"/>
       <c r="AE113" s="56"/>
     </row>
-    <row r="114" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="56"/>
       <c r="D114" s="56"/>
@@ -11240,12 +11240,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{813FE670-96D5-497D-9F1D-1D949CC9A603}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BE60D559-51E1-4574-86D8-08F8EA970599}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{0B70F349-4020-44B9-A8F0-EB1C4A711B49}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{DEE00D0C-8754-4299-8712-DDDED67AAB13}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{BED5D01D-F4CB-46C7-B538-6CAF9D0804A0}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{DC06A957-8BFB-4164-883D-452364FB6E46}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0EAC7EE4-E64D-48C0-9522-1E0242FA3522}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{0DD791DC-B46D-4A4C-9424-52F03BAF29CB}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{FA5E4439-480D-4667-867A-4C452D454FE9}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{E5748692-83E6-4C6B-8077-BB47B2590F12}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{1D3C2A15-C9B2-48D4-AD78-A49057522DB9}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{ADD80F71-E183-4E6F-91B2-33A77721D8CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
